--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\seguimientoUTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E52D673-714F-4753-9F05-266A050048B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654587C-0D6B-490D-A678-4AD68D7602C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>INGENIERIA EN SISTEMAS - UTN FRBA</t>
   </si>
@@ -545,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,32 +566,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,27 +581,49 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,79 +918,79 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1032,26 +1033,26 @@
       <c r="U4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1069,35 +1070,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="26" t="str">
+      <c r="V5" s="15" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26" t="str">
+      <c r="W5" s="15"/>
+      <c r="X5" s="15" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="15">
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="25">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="16"/>
+      <c r="AA5" s="26"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1115,35 +1116,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="26" t="str">
+      <c r="V6" s="15" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26" t="str">
+      <c r="W6" s="15"/>
+      <c r="X6" s="15" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="15">
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="25">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="16"/>
+      <c r="AA6" s="26"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1161,35 +1162,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="26" t="str">
+      <c r="V7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26" t="str">
+      <c r="W7" s="15"/>
+      <c r="X7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="15">
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="25">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1211,35 +1212,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="26" t="str">
+      <c r="V8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26" t="str">
+      <c r="W8" s="15"/>
+      <c r="X8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="15">
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="25">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1257,35 +1258,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="26" t="str">
+      <c r="V9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26" t="str">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="15">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="16"/>
+      <c r="AA9" s="26"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1309,35 +1310,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="26" t="str">
+      <c r="V10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26" t="str">
+      <c r="W10" s="15"/>
+      <c r="X10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="15">
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="25">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="16"/>
+      <c r="AA10" s="26"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1357,34 +1358,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="26" t="str">
+      <c r="V11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26" t="str">
+      <c r="W11" s="15"/>
+      <c r="X11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="15">
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="25">
         <v>9</v>
       </c>
-      <c r="AA11" s="16"/>
+      <c r="AA11" s="26"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1400,30 +1401,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="26" t="str">
+      <c r="V12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26" t="str">
+      <c r="W12" s="15"/>
+      <c r="X12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="15">
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="25">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="16"/>
+      <c r="AA12" s="26"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1440,32 +1441,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="19" t="str">
+      <c r="V13" s="12" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="13" t="e">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="27" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="14"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1485,34 +1486,38 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="26" t="str">
+      <c r="V14" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26" t="str">
+      <c r="W14" s="15"/>
+      <c r="X14" s="15" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="15">
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="25">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="16"/>
+      <c r="AA14" s="26"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="5">
+        <v>6</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1535,23 +1540,23 @@
         <v>NO</v>
       </c>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="11" t="e">
+      <c r="Z15" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="24"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1575,25 +1580,25 @@
         <v>NO</v>
       </c>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="11" t="e">
+      <c r="Z16" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA16" s="12"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1611,35 +1616,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="26" t="str">
+      <c r="V17" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26" t="str">
+      <c r="W17" s="15"/>
+      <c r="X17" s="15" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="15">
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="25">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="16"/>
+      <c r="AA17" s="26"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1659,33 +1664,33 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="26" t="str">
+      <c r="V18" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26" t="str">
+      <c r="W18" s="15"/>
+      <c r="X18" s="15" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="15">
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="25">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="16"/>
+      <c r="AA18" s="26"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1709,25 +1714,25 @@
         <v>NO</v>
       </c>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="11" t="e">
+      <c r="Z19" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA19" s="12"/>
+      <c r="AA19" s="24"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1745,35 +1750,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="26" t="str">
+      <c r="V20" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26" t="str">
+      <c r="W20" s="15"/>
+      <c r="X20" s="15" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="15">
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="25">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="16"/>
+      <c r="AA20" s="26"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1789,30 +1794,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="26" t="str">
+      <c r="V21" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26" t="str">
+      <c r="W21" s="15"/>
+      <c r="X21" s="15" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="15">
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="25">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="26"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1829,30 +1834,30 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="19" t="str">
+      <c r="V22" s="12" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="13" t="e">
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="27" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="14"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1876,23 +1881,23 @@
         <v>NO</v>
       </c>
       <c r="Y23" s="18"/>
-      <c r="Z23" s="11" t="e">
+      <c r="Z23" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="12"/>
+      <c r="AA23" s="24"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1916,23 +1921,23 @@
         <v>NO</v>
       </c>
       <c r="Y24" s="18"/>
-      <c r="Z24" s="11" t="e">
+      <c r="Z24" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="12"/>
+      <c r="AA24" s="24"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1956,32 +1961,32 @@
         <v>NO</v>
       </c>
       <c r="Y25" s="18"/>
-      <c r="Z25" s="11" t="e">
+      <c r="Z25" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="12"/>
+      <c r="AA25" s="24"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="4">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="29">
         <v>7</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="29">
         <v>10</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="29">
         <v>10</v>
       </c>
       <c r="L26" s="4"/>
@@ -2004,23 +2009,23 @@
         <v>NO</v>
       </c>
       <c r="Y26" s="18"/>
-      <c r="Z26" s="11" t="e">
+      <c r="Z26" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="12"/>
+      <c r="AA26" s="24"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2044,23 +2049,23 @@
         <v>NO</v>
       </c>
       <c r="Y27" s="18"/>
-      <c r="Z27" s="11" t="e">
+      <c r="Z27" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="12"/>
+      <c r="AA27" s="24"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2084,23 +2089,23 @@
         <v>NO</v>
       </c>
       <c r="Y28" s="18"/>
-      <c r="Z28" s="11" t="e">
+      <c r="Z28" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA28" s="12"/>
+      <c r="AA28" s="24"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2124,23 +2129,23 @@
         <v>NO</v>
       </c>
       <c r="Y29" s="18"/>
-      <c r="Z29" s="11" t="e">
+      <c r="Z29" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="12"/>
+      <c r="AA29" s="24"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2164,20 +2169,20 @@
         <v>NO</v>
       </c>
       <c r="Y30" s="18"/>
-      <c r="Z30" s="11" t="e">
+      <c r="Z30" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="12"/>
+      <c r="AA30" s="24"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2194,30 +2199,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="13" t="e">
+      <c r="V31" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="27" t="e">
         <f t="shared" ref="Z31:Z45" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="14"/>
+      <c r="AA31" s="28"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2241,23 +2246,23 @@
         <v>NO</v>
       </c>
       <c r="Y32" s="18"/>
-      <c r="Z32" s="11" t="e">
+      <c r="Z32" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="12"/>
+      <c r="AA32" s="24"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2281,23 +2286,23 @@
         <v>NO</v>
       </c>
       <c r="Y33" s="18"/>
-      <c r="Z33" s="11" t="e">
+      <c r="Z33" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA33" s="12"/>
+      <c r="AA33" s="24"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2321,23 +2326,23 @@
         <v>NO</v>
       </c>
       <c r="Y34" s="18"/>
-      <c r="Z34" s="11" t="e">
+      <c r="Z34" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA34" s="12"/>
+      <c r="AA34" s="24"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2361,23 +2366,23 @@
         <v>NO</v>
       </c>
       <c r="Y35" s="18"/>
-      <c r="Z35" s="11" t="e">
+      <c r="Z35" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA35" s="12"/>
+      <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2401,23 +2406,23 @@
         <v>NO</v>
       </c>
       <c r="Y36" s="18"/>
-      <c r="Z36" s="11" t="e">
+      <c r="Z36" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA36" s="12"/>
+      <c r="AA36" s="24"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2441,23 +2446,23 @@
         <v>NO</v>
       </c>
       <c r="Y37" s="18"/>
-      <c r="Z37" s="11" t="e">
+      <c r="Z37" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="12"/>
+      <c r="AA37" s="24"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2481,23 +2486,23 @@
         <v>NO</v>
       </c>
       <c r="Y38" s="18"/>
-      <c r="Z38" s="11" t="e">
+      <c r="Z38" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA38" s="12"/>
+      <c r="AA38" s="24"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2521,23 +2526,23 @@
         <v>NO</v>
       </c>
       <c r="Y39" s="18"/>
-      <c r="Z39" s="11" t="e">
+      <c r="Z39" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="12"/>
+      <c r="AA39" s="24"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2561,23 +2566,23 @@
         <v>NO</v>
       </c>
       <c r="Y40" s="18"/>
-      <c r="Z40" s="11" t="e">
+      <c r="Z40" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="12"/>
+      <c r="AA40" s="24"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2601,23 +2606,23 @@
         <v>NO</v>
       </c>
       <c r="Y41" s="18"/>
-      <c r="Z41" s="11" t="e">
+      <c r="Z41" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA41" s="12"/>
+      <c r="AA41" s="24"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2641,23 +2646,23 @@
         <v>NO</v>
       </c>
       <c r="Y42" s="18"/>
-      <c r="Z42" s="11" t="e">
+      <c r="Z42" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="12"/>
+      <c r="AA42" s="24"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2681,23 +2686,23 @@
         <v>NO</v>
       </c>
       <c r="Y43" s="18"/>
-      <c r="Z43" s="11" t="e">
+      <c r="Z43" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="12"/>
+      <c r="AA43" s="24"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2721,23 +2726,23 @@
         <v>NO</v>
       </c>
       <c r="Y44" s="18"/>
-      <c r="Z44" s="11" t="e">
+      <c r="Z44" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA44" s="12"/>
+      <c r="AA44" s="24"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2761,20 +2766,20 @@
         <v>NO</v>
       </c>
       <c r="Y45" s="18"/>
-      <c r="Z45" s="11" t="e">
+      <c r="Z45" s="23" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA45" s="12"/>
+      <c r="AA45" s="24"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2791,30 +2796,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="13" t="e">
+      <c r="V46" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="27" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="14"/>
+      <c r="AA46" s="28"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2838,23 +2843,23 @@
         <v>NO</v>
       </c>
       <c r="Y47" s="18"/>
-      <c r="Z47" s="11" t="e">
+      <c r="Z47" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="12"/>
+      <c r="AA47" s="24"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2878,23 +2883,23 @@
         <v>NO</v>
       </c>
       <c r="Y48" s="18"/>
-      <c r="Z48" s="11" t="e">
+      <c r="Z48" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="12"/>
+      <c r="AA48" s="24"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2918,23 +2923,23 @@
         <v>NO</v>
       </c>
       <c r="Y49" s="18"/>
-      <c r="Z49" s="11" t="e">
+      <c r="Z49" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="12"/>
+      <c r="AA49" s="24"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2958,23 +2963,23 @@
         <v>NO</v>
       </c>
       <c r="Y50" s="18"/>
-      <c r="Z50" s="11" t="e">
+      <c r="Z50" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="12"/>
+      <c r="AA50" s="24"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2998,23 +3003,23 @@
         <v>NO</v>
       </c>
       <c r="Y51" s="18"/>
-      <c r="Z51" s="11" t="e">
+      <c r="Z51" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="12"/>
+      <c r="AA51" s="24"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3038,23 +3043,23 @@
         <v>NO</v>
       </c>
       <c r="Y52" s="18"/>
-      <c r="Z52" s="11" t="e">
+      <c r="Z52" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="12"/>
+      <c r="AA52" s="24"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3078,20 +3083,20 @@
         <v>NO</v>
       </c>
       <c r="Y53" s="18"/>
-      <c r="Z53" s="11" t="e">
+      <c r="Z53" s="23" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="12"/>
+      <c r="AA53" s="24"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3108,30 +3113,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="13" t="e">
+      <c r="V54" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="27" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="14"/>
+      <c r="AA54" s="28"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3155,23 +3160,23 @@
         <v>NO</v>
       </c>
       <c r="Y55" s="18"/>
-      <c r="Z55" s="11" t="e">
+      <c r="Z55" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="12"/>
+      <c r="AA55" s="24"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3195,23 +3200,23 @@
         <v>NO</v>
       </c>
       <c r="Y56" s="18"/>
-      <c r="Z56" s="11" t="e">
+      <c r="Z56" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="12"/>
+      <c r="AA56" s="24"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3235,23 +3240,23 @@
         <v>NO</v>
       </c>
       <c r="Y57" s="18"/>
-      <c r="Z57" s="11" t="e">
+      <c r="Z57" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="12"/>
+      <c r="AA57" s="24"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3275,23 +3280,23 @@
         <v>NO</v>
       </c>
       <c r="Y58" s="18"/>
-      <c r="Z58" s="11" t="e">
+      <c r="Z58" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="12"/>
+      <c r="AA58" s="24"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3315,23 +3320,23 @@
         <v>NO</v>
       </c>
       <c r="Y59" s="18"/>
-      <c r="Z59" s="11" t="e">
+      <c r="Z59" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="12"/>
+      <c r="AA59" s="24"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3355,20 +3360,20 @@
         <v>NO</v>
       </c>
       <c r="Y60" s="18"/>
-      <c r="Z60" s="11" t="e">
+      <c r="Z60" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="12"/>
+      <c r="AA60" s="24"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3385,30 +3390,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="13" t="e">
+      <c r="V61" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="27" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="14"/>
+      <c r="AA61" s="28"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3432,23 +3437,23 @@
         <v>NO</v>
       </c>
       <c r="Y62" s="18"/>
-      <c r="Z62" s="11" t="e">
+      <c r="Z62" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="12"/>
+      <c r="AA62" s="24"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3472,23 +3477,23 @@
         <v>NO</v>
       </c>
       <c r="Y63" s="18"/>
-      <c r="Z63" s="11" t="e">
+      <c r="Z63" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="12"/>
+      <c r="AA63" s="24"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3512,23 +3517,23 @@
         <v>NO</v>
       </c>
       <c r="Y64" s="18"/>
-      <c r="Z64" s="11" t="e">
+      <c r="Z64" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="12"/>
+      <c r="AA64" s="24"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3552,23 +3557,23 @@
         <v>NO</v>
       </c>
       <c r="Y65" s="18"/>
-      <c r="Z65" s="11" t="e">
+      <c r="Z65" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="12"/>
+      <c r="AA65" s="24"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3582,30 +3587,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="13" t="e">
+      <c r="V66" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="27" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="14"/>
+      <c r="AA66" s="28"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3629,23 +3634,23 @@
         <v>NO</v>
       </c>
       <c r="Y67" s="18"/>
-      <c r="Z67" s="11" t="e">
+      <c r="Z67" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="12"/>
+      <c r="AA67" s="24"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -3669,23 +3674,23 @@
         <v>NO</v>
       </c>
       <c r="Y68" s="18"/>
-      <c r="Z68" s="11" t="e">
+      <c r="Z68" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="12"/>
+      <c r="AA68" s="24"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -3709,23 +3714,23 @@
         <v>NO</v>
       </c>
       <c r="Y69" s="18"/>
-      <c r="Z69" s="11" t="e">
+      <c r="Z69" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="12"/>
+      <c r="AA69" s="24"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -3749,23 +3754,23 @@
         <v>NO</v>
       </c>
       <c r="Y70" s="18"/>
-      <c r="Z70" s="11" t="e">
+      <c r="Z70" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="12"/>
+      <c r="AA70" s="24"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -3789,23 +3794,23 @@
         <v>NO</v>
       </c>
       <c r="Y71" s="18"/>
-      <c r="Z71" s="11" t="e">
+      <c r="Z71" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="12"/>
+      <c r="AA71" s="24"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -3829,23 +3834,23 @@
         <v>NO</v>
       </c>
       <c r="Y72" s="18"/>
-      <c r="Z72" s="11" t="e">
+      <c r="Z72" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="12"/>
+      <c r="AA72" s="24"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -3869,23 +3874,23 @@
         <v>NO</v>
       </c>
       <c r="Y73" s="18"/>
-      <c r="Z73" s="11" t="e">
+      <c r="Z73" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="12"/>
+      <c r="AA73" s="24"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -3909,23 +3914,23 @@
         <v>NO</v>
       </c>
       <c r="Y74" s="18"/>
-      <c r="Z74" s="11" t="e">
+      <c r="Z74" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="12"/>
+      <c r="AA74" s="24"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -3949,23 +3954,23 @@
         <v>NO</v>
       </c>
       <c r="Y75" s="18"/>
-      <c r="Z75" s="11" t="e">
+      <c r="Z75" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="12"/>
+      <c r="AA75" s="24"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3989,23 +3994,23 @@
         <v>NO</v>
       </c>
       <c r="Y76" s="18"/>
-      <c r="Z76" s="11" t="e">
+      <c r="Z76" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="12"/>
+      <c r="AA76" s="24"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4029,23 +4034,23 @@
         <v>NO</v>
       </c>
       <c r="Y77" s="18"/>
-      <c r="Z77" s="11" t="e">
+      <c r="Z77" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="12"/>
+      <c r="AA77" s="24"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4069,23 +4074,23 @@
         <v>NO</v>
       </c>
       <c r="Y78" s="18"/>
-      <c r="Z78" s="11" t="e">
+      <c r="Z78" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="12"/>
+      <c r="AA78" s="24"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4109,23 +4114,23 @@
         <v>NO</v>
       </c>
       <c r="Y79" s="18"/>
-      <c r="Z79" s="11" t="e">
+      <c r="Z79" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="12"/>
+      <c r="AA79" s="24"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4149,23 +4154,23 @@
         <v>NO</v>
       </c>
       <c r="Y80" s="18"/>
-      <c r="Z80" s="11" t="e">
+      <c r="Z80" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="12"/>
+      <c r="AA80" s="24"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4189,23 +4194,23 @@
         <v>NO</v>
       </c>
       <c r="Y81" s="18"/>
-      <c r="Z81" s="11" t="e">
+      <c r="Z81" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="12"/>
+      <c r="AA81" s="24"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4229,23 +4234,23 @@
         <v>NO</v>
       </c>
       <c r="Y82" s="18"/>
-      <c r="Z82" s="11" t="e">
+      <c r="Z82" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="12"/>
+      <c r="AA82" s="24"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4269,23 +4274,23 @@
         <v>NO</v>
       </c>
       <c r="Y83" s="18"/>
-      <c r="Z83" s="11" t="e">
+      <c r="Z83" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="12"/>
+      <c r="AA83" s="24"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4309,23 +4314,23 @@
         <v>NO</v>
       </c>
       <c r="Y84" s="18"/>
-      <c r="Z84" s="11" t="e">
+      <c r="Z84" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="12"/>
+      <c r="AA84" s="24"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4349,23 +4354,23 @@
         <v>NO</v>
       </c>
       <c r="Y85" s="18"/>
-      <c r="Z85" s="11" t="e">
+      <c r="Z85" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="12"/>
+      <c r="AA85" s="24"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4389,23 +4394,23 @@
         <v>NO</v>
       </c>
       <c r="Y86" s="18"/>
-      <c r="Z86" s="11" t="e">
+      <c r="Z86" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="12"/>
+      <c r="AA86" s="24"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4429,23 +4434,23 @@
         <v>NO</v>
       </c>
       <c r="Y87" s="18"/>
-      <c r="Z87" s="11" t="e">
+      <c r="Z87" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="12"/>
+      <c r="AA87" s="24"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4469,23 +4474,23 @@
         <v>NO</v>
       </c>
       <c r="Y88" s="18"/>
-      <c r="Z88" s="11" t="e">
+      <c r="Z88" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="12"/>
+      <c r="AA88" s="24"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4509,23 +4514,23 @@
         <v>NO</v>
       </c>
       <c r="Y89" s="18"/>
-      <c r="Z89" s="11" t="e">
+      <c r="Z89" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="12"/>
+      <c r="AA89" s="24"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4549,23 +4554,23 @@
         <v>NO</v>
       </c>
       <c r="Y90" s="18"/>
-      <c r="Z90" s="11" t="e">
+      <c r="Z90" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="12"/>
+      <c r="AA90" s="24"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4589,23 +4594,23 @@
         <v>NO</v>
       </c>
       <c r="Y91" s="18"/>
-      <c r="Z91" s="11" t="e">
+      <c r="Z91" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="12"/>
+      <c r="AA91" s="24"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4629,23 +4634,23 @@
         <v>NO</v>
       </c>
       <c r="Y92" s="18"/>
-      <c r="Z92" s="11" t="e">
+      <c r="Z92" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="12"/>
+      <c r="AA92" s="24"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -4669,23 +4674,23 @@
         <v>NO</v>
       </c>
       <c r="Y93" s="18"/>
-      <c r="Z93" s="11" t="e">
+      <c r="Z93" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="12"/>
+      <c r="AA93" s="24"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -4709,23 +4714,23 @@
         <v>NO</v>
       </c>
       <c r="Y94" s="18"/>
-      <c r="Z94" s="11" t="e">
+      <c r="Z94" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="12"/>
+      <c r="AA94" s="24"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -4749,23 +4754,23 @@
         <v>NO</v>
       </c>
       <c r="Y95" s="18"/>
-      <c r="Z95" s="11" t="e">
+      <c r="Z95" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="12"/>
+      <c r="AA95" s="24"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -4789,23 +4794,23 @@
         <v>NO</v>
       </c>
       <c r="Y96" s="18"/>
-      <c r="Z96" s="11" t="e">
+      <c r="Z96" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="12"/>
+      <c r="AA96" s="24"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -4829,23 +4834,23 @@
         <v>NO</v>
       </c>
       <c r="Y97" s="18"/>
-      <c r="Z97" s="11" t="e">
+      <c r="Z97" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="12"/>
+      <c r="AA97" s="24"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -4869,32 +4874,32 @@
         <v>NO</v>
       </c>
       <c r="Y98" s="18"/>
-      <c r="Z98" s="11" t="e">
+      <c r="Z98" s="23" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="12"/>
+      <c r="AA98" s="24"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="6">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
       <c r="Q101" s="6">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
         <v>21</v>
@@ -4907,61 +4912,61 @@
       <c r="AA101" s="7"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="6">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
       <c r="Q102" s="6">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="10" t="s">
+      <c r="V102" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
-      <c r="Z102" s="10"/>
+      <c r="W102" s="22"/>
+      <c r="X102" s="22"/>
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="22"/>
       <c r="AA102" s="6">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
         <v>8.384615384615385</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="6">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
       <c r="Q103" s="6">
         <f>Q101+Q102</f>
         <v>73</v>
@@ -4975,6 +4980,465 @@
     </row>
   </sheetData>
   <mergeCells count="483">
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V22:W22"/>
@@ -4999,465 +5463,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="Z84:AA84"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="X5:Y98">

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\seguimientoUTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654587C-0D6B-490D-A678-4AD68D7602C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36358A0F-6929-4970-8E03-F632DE9101B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>INGENIERIA EN SISTEMAS - UTN FRBA</t>
   </si>
@@ -454,7 +454,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +488,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,9 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,6 +574,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,23 +607,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,7 +634,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,141 +954,141 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="W3" s="13"/>
+      <c r="X3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="s">
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="11"/>
+      <c r="AA3" s="13"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1070,35 +1106,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="15" t="str">
+      <c r="V5" s="17" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="str">
+      <c r="W5" s="17"/>
+      <c r="X5" s="17" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="25">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="26">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="26"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1116,35 +1152,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="15" t="str">
+      <c r="V6" s="17" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15" t="str">
+      <c r="W6" s="17"/>
+      <c r="X6" s="17" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="25">
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="26">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="26"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1162,35 +1198,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="15" t="str">
+      <c r="V7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15" t="str">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="25">
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="26">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="26"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1212,35 +1248,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="15" t="str">
+      <c r="V8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15" t="str">
+      <c r="W8" s="17"/>
+      <c r="X8" s="17" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="25">
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="26">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1258,35 +1294,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="15" t="str">
+      <c r="V9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="str">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="25">
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="26">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="26"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1310,35 +1346,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="15" t="str">
+      <c r="V10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15" t="str">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="25">
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="26">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="26"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1358,34 +1394,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="15" t="str">
+      <c r="V11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15" t="str">
+      <c r="W11" s="17"/>
+      <c r="X11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="25">
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="26">
         <v>9</v>
       </c>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1401,30 +1437,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="15" t="str">
+      <c r="V12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15" t="str">
+      <c r="W12" s="17"/>
+      <c r="X12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="25">
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="26">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="26"/>
+      <c r="AA12" s="27"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1441,32 +1477,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="12" t="str">
+      <c r="V13" s="14" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="27" t="e">
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="28" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="28"/>
+      <c r="AA13" s="29"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1486,119 +1522,130 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="15" t="str">
+      <c r="V14" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15" t="str">
+      <c r="W14" s="17"/>
+      <c r="X14" s="17" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="25">
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="26">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="26"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="5">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="11">
         <v>6</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="18" t="str">
+      <c r="J15" s="11">
+        <v>8</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>8</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="23" t="e">
+        <v>SI</v>
+      </c>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="26">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA15" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA15" s="27"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="18" t="str">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="11">
+        <v>6</v>
+      </c>
+      <c r="J16" s="11">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA16" s="24"/>
+        <v>SI</v>
+      </c>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="26">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1616,35 +1663,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="15" t="str">
+      <c r="V17" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15" t="str">
+      <c r="W17" s="17"/>
+      <c r="X17" s="17" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="25">
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="26">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="26"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1664,75 +1711,81 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="15" t="str">
+      <c r="V18" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15" t="str">
+      <c r="W18" s="17"/>
+      <c r="X18" s="17" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="25">
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="26">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="26"/>
+      <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="18" t="str">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="11">
+        <v>8</v>
+      </c>
+      <c r="J19" s="11">
+        <v>8</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="23" t="e">
+        <v>SI</v>
+      </c>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="26">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA19" s="27"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1750,35 +1803,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="15" t="str">
+      <c r="V20" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15" t="str">
+      <c r="W20" s="17"/>
+      <c r="X20" s="17" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="25">
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="26">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="26"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1794,30 +1847,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="15" t="str">
+      <c r="V21" s="17" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15" t="str">
+      <c r="W21" s="17"/>
+      <c r="X21" s="17" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="25">
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="26">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="26"/>
+      <c r="AA21" s="27"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1834,355 +1887,369 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="12" t="str">
+      <c r="V22" s="14" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="27" t="e">
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="28" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="28"/>
+      <c r="AA22" s="29"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18" t="str">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="9">
+        <v>8</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9">
+        <v>2</v>
+      </c>
+      <c r="O23" s="9">
+        <v>6</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="23" t="e">
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="32" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="24"/>
+      <c r="AA23" s="33"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="23" t="e">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="30" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="24"/>
+      <c r="AA24" s="31"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="23" t="e">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="30" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="24"/>
+      <c r="AA25" s="31"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="29">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="9">
         <v>7</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="9">
         <v>10</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="9">
         <v>10</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="23" t="e">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="32" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="24"/>
+      <c r="AA26" s="33"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="23" t="e">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="30" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="24"/>
+      <c r="AA27" s="31"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="23" t="e">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="34">
+        <v>8</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>SI</v>
+      </c>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>SI</v>
+      </c>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="26">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA28" s="27"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="23" t="e">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="30" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="24"/>
+      <c r="AA29" s="31"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="23" t="e">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="30" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="24"/>
+      <c r="AA30" s="31"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2199,30 +2266,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="27" t="e">
+      <c r="V31" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="28" t="e">
         <f t="shared" ref="Z31:Z45" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="28"/>
+      <c r="AA31" s="29"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2236,193 +2303,193 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="23" t="e">
+      <c r="V32" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="30" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="24"/>
+      <c r="AA32" s="31"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="23" t="e">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA33" s="24"/>
+      <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="23" t="e">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA34" s="24"/>
+      <c r="AA34" s="39"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="23" t="e">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA35" s="24"/>
+      <c r="AA35" s="39"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="23" t="e">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA36" s="24"/>
+      <c r="AA36" s="39"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2436,73 +2503,73 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="23" t="e">
+      <c r="V37" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="30" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="24"/>
+      <c r="AA37" s="31"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="23" t="e">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA38" s="24"/>
+      <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2516,33 +2583,33 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="23" t="e">
+      <c r="V39" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="30" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="24"/>
+      <c r="AA39" s="31"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2556,73 +2623,73 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="23" t="e">
+      <c r="V40" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="30" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="24"/>
+      <c r="AA40" s="31"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="23" t="e">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA41" s="24"/>
+      <c r="AA41" s="39"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2636,33 +2703,33 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="23" t="e">
+      <c r="V42" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="30" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="24"/>
+      <c r="AA42" s="31"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2676,110 +2743,110 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="23" t="e">
+      <c r="V43" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="30" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="24"/>
+      <c r="AA43" s="31"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="23" t="e">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA44" s="24"/>
+      <c r="AA44" s="39"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="23" t="e">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="38" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA45" s="24"/>
+      <c r="AA45" s="39"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2796,30 +2863,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="27" t="e">
+      <c r="V46" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="28" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="28"/>
+      <c r="AA46" s="29"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2833,33 +2900,33 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="23" t="e">
+      <c r="V47" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="24"/>
+      <c r="AA47" s="31"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2873,33 +2940,33 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="23" t="e">
+      <c r="V48" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="24"/>
+      <c r="AA48" s="31"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2913,33 +2980,33 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="23" t="e">
+      <c r="V49" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="24"/>
+      <c r="AA49" s="31"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2953,33 +3020,33 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="23" t="e">
+      <c r="V50" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="24"/>
+      <c r="AA50" s="31"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2993,33 +3060,33 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="23" t="e">
+      <c r="V51" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="24"/>
+      <c r="AA51" s="31"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3033,33 +3100,33 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="23" t="e">
+      <c r="V52" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="24"/>
+      <c r="AA52" s="31"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3073,30 +3140,30 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="23" t="e">
+      <c r="V53" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="30" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="24"/>
+      <c r="AA53" s="31"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3113,30 +3180,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="27" t="e">
+      <c r="V54" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="28" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="28"/>
+      <c r="AA54" s="29"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3150,33 +3217,33 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="23" t="e">
+      <c r="V55" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="24"/>
+      <c r="AA55" s="31"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3190,33 +3257,33 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="23" t="e">
+      <c r="V56" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="24"/>
+      <c r="AA56" s="31"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3230,33 +3297,33 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="23" t="e">
+      <c r="V57" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="24"/>
+      <c r="AA57" s="31"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3270,33 +3337,33 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="23" t="e">
+      <c r="V58" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="24"/>
+      <c r="AA58" s="31"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3310,33 +3377,33 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="23" t="e">
+      <c r="V59" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="24"/>
+      <c r="AA59" s="31"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3350,30 +3417,30 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="23" t="e">
+      <c r="V60" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="24"/>
+      <c r="AA60" s="31"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3390,30 +3457,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="27" t="e">
+      <c r="V61" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="28" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="28"/>
+      <c r="AA61" s="29"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3427,33 +3494,33 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="23" t="e">
+      <c r="V62" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="30" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="24"/>
+      <c r="AA62" s="31"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3467,33 +3534,33 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="23" t="e">
+      <c r="V63" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="30" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="24"/>
+      <c r="AA63" s="31"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3507,33 +3574,33 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="23" t="e">
+      <c r="V64" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="30" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="24"/>
+      <c r="AA64" s="31"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3547,33 +3614,33 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="23" t="e">
+      <c r="V65" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="30" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="24"/>
+      <c r="AA65" s="31"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3587,30 +3654,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="27" t="e">
+      <c r="V66" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="28" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="28"/>
+      <c r="AA66" s="29"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3624,33 +3691,33 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="23" t="e">
+      <c r="V67" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="24"/>
+      <c r="AA67" s="31"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -3664,33 +3731,33 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="23" t="e">
+      <c r="V68" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="24"/>
+      <c r="AA68" s="31"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -3704,33 +3771,33 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="23" t="e">
+      <c r="V69" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="24"/>
+      <c r="AA69" s="31"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -3744,33 +3811,33 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="23" t="e">
+      <c r="V70" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="24"/>
+      <c r="AA70" s="31"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -3784,33 +3851,33 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="23" t="e">
+      <c r="V71" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="24"/>
+      <c r="AA71" s="31"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -3824,33 +3891,33 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="23" t="e">
+      <c r="V72" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="24"/>
+      <c r="AA72" s="31"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -3864,33 +3931,33 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="23" t="e">
+      <c r="V73" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="24"/>
+      <c r="AA73" s="31"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -3904,33 +3971,33 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="23" t="e">
+      <c r="V74" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="24"/>
+      <c r="AA74" s="31"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -3944,33 +4011,33 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="23" t="e">
+      <c r="V75" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="24"/>
+      <c r="AA75" s="31"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3984,33 +4051,33 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="23" t="e">
+      <c r="V76" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="24"/>
+      <c r="AA76" s="31"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4024,33 +4091,33 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="23" t="e">
+      <c r="V77" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="24"/>
+      <c r="AA77" s="31"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4064,33 +4131,33 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="23" t="e">
+      <c r="V78" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="24"/>
+      <c r="AA78" s="31"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4104,33 +4171,33 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="23" t="e">
+      <c r="V79" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="24"/>
+      <c r="AA79" s="31"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4144,33 +4211,33 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="23" t="e">
+      <c r="V80" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="24"/>
+      <c r="AA80" s="31"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4184,33 +4251,33 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="23" t="e">
+      <c r="V81" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="24"/>
+      <c r="AA81" s="31"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4224,33 +4291,33 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="23" t="e">
+      <c r="V82" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="24"/>
+      <c r="AA82" s="31"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4264,33 +4331,33 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="23" t="e">
+      <c r="V83" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="24"/>
+      <c r="AA83" s="31"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4304,33 +4371,33 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="23" t="e">
+      <c r="V84" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="24"/>
+      <c r="AA84" s="31"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4344,33 +4411,33 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="23" t="e">
+      <c r="V85" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="24"/>
+      <c r="AA85" s="31"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4384,33 +4451,33 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="18" t="str">
+      <c r="V86" s="20" t="str">
         <f t="shared" ref="V86:V98" si="14">IF(OR(X86 = "SI",OR(R86 &gt;= 6, S86 &gt;= 6, T86 &gt;= 6, U86 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18" t="str">
+      <c r="W86" s="20"/>
+      <c r="X86" s="20" t="str">
         <f t="shared" ref="X86:X98" si="15">IF(AND(COUNTIF(L86:Q86, "&gt;0") &lt;= 1,  OR(I86&gt;=8,L86&gt;=8), OR(J86&gt;=8,N86&gt;=8,J86=0), OR(K86&gt;=8, P86&gt;=8, K86=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="23" t="e">
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="24"/>
+      <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4424,33 +4491,33 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="18" t="str">
+      <c r="V87" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18" t="str">
+      <c r="W87" s="20"/>
+      <c r="X87" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="23" t="e">
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="24"/>
+      <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4464,33 +4531,33 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="18" t="str">
+      <c r="V88" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18" t="str">
+      <c r="W88" s="20"/>
+      <c r="X88" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="23" t="e">
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="24"/>
+      <c r="AA88" s="31"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4504,33 +4571,33 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="18" t="str">
+      <c r="V89" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18" t="str">
+      <c r="W89" s="20"/>
+      <c r="X89" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="23" t="e">
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="24"/>
+      <c r="AA89" s="31"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4544,33 +4611,33 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="18" t="str">
+      <c r="V90" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18" t="str">
+      <c r="W90" s="20"/>
+      <c r="X90" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="23" t="e">
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="24"/>
+      <c r="AA90" s="31"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4584,33 +4651,33 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="18" t="str">
+      <c r="V91" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18" t="str">
+      <c r="W91" s="20"/>
+      <c r="X91" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="23" t="e">
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="24"/>
+      <c r="AA91" s="31"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4624,33 +4691,33 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="18" t="str">
+      <c r="V92" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18" t="str">
+      <c r="W92" s="20"/>
+      <c r="X92" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="23" t="e">
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="24"/>
+      <c r="AA92" s="31"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -4664,33 +4731,33 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="18" t="str">
+      <c r="V93" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18" t="str">
+      <c r="W93" s="20"/>
+      <c r="X93" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="23" t="e">
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="24"/>
+      <c r="AA93" s="31"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -4704,33 +4771,33 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="18" t="str">
+      <c r="V94" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18" t="str">
+      <c r="W94" s="20"/>
+      <c r="X94" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="23" t="e">
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="24"/>
+      <c r="AA94" s="31"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -4744,33 +4811,33 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="18" t="str">
+      <c r="V95" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18" t="str">
+      <c r="W95" s="20"/>
+      <c r="X95" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="23" t="e">
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="24"/>
+      <c r="AA95" s="31"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -4784,33 +4851,33 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="18" t="str">
+      <c r="V96" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18" t="str">
+      <c r="W96" s="20"/>
+      <c r="X96" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="23" t="e">
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="24"/>
+      <c r="AA96" s="31"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -4824,33 +4891,33 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="18" t="str">
+      <c r="V97" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18" t="str">
+      <c r="W97" s="20"/>
+      <c r="X97" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="23" t="e">
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="24"/>
+      <c r="AA97" s="31"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -4864,119 +4931,119 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="18" t="str">
+      <c r="V98" s="20" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18" t="str">
+      <c r="W98" s="20"/>
+      <c r="X98" s="20" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="23" t="e">
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="30" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="24"/>
+      <c r="AA98" s="31"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="6">
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="22" t="s">
+      <c r="K101" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="6">
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
-        <v>21</v>
-      </c>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="6">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="22" t="s">
+      <c r="K102" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="6">
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="22" t="s">
+      <c r="V102" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="6">
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="5">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
-        <v>8.384615384615385</v>
+        <v>8.4117647058823533</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="6">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="22" t="s">
+      <c r="K103" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="6">
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="5">
         <f>Q101+Q102</f>
-        <v>73</v>
-      </c>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="483">
@@ -4990,6 +5057,20 @@
     <mergeCell ref="Z56:AA56"/>
     <mergeCell ref="Z55:AA55"/>
     <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="Z60:AA60"/>
     <mergeCell ref="V102:Z102"/>
     <mergeCell ref="K101:P101"/>
     <mergeCell ref="K102:P102"/>
@@ -5009,25 +5090,11 @@
     <mergeCell ref="Z91:AA91"/>
     <mergeCell ref="Z90:AA90"/>
     <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="Z61:AA61"/>
     <mergeCell ref="Z66:AA66"/>
     <mergeCell ref="Z77:AA77"/>
     <mergeCell ref="Z76:AA76"/>
     <mergeCell ref="Z75:AA75"/>
     <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="Z60:AA60"/>
     <mergeCell ref="Z59:AA59"/>
     <mergeCell ref="Z58:AA58"/>
     <mergeCell ref="Z62:AA62"/>
@@ -5085,6 +5152,21 @@
     <mergeCell ref="X93:Y93"/>
     <mergeCell ref="X94:Y94"/>
     <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
     <mergeCell ref="X96:Y96"/>
     <mergeCell ref="X97:Y97"/>
     <mergeCell ref="X98:Y98"/>
@@ -5235,6 +5317,10 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
     <mergeCell ref="F65:H65"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A71:E71"/>
@@ -5275,12 +5361,6 @@
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="F59:H59"/>
     <mergeCell ref="F64:H64"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
     <mergeCell ref="V55:W55"/>
     <mergeCell ref="V56:W56"/>
     <mergeCell ref="V57:W57"/>
@@ -5293,10 +5373,6 @@
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="V53:W53"/>
     <mergeCell ref="V54:W54"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="A64:E64"/>
@@ -5307,28 +5383,30 @@
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
     <mergeCell ref="X29:Y29"/>
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="X31:Y31"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
     <mergeCell ref="X22:Y22"/>
     <mergeCell ref="X23:Y23"/>
     <mergeCell ref="X24:Y24"/>
@@ -5338,15 +5416,6 @@
     <mergeCell ref="V40:W40"/>
     <mergeCell ref="V41:W41"/>
     <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="V30:W30"/>
@@ -5358,12 +5427,10 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="V27:W27"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\seguimientoUTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654587C-0D6B-490D-A678-4AD68D7602C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071B601-1117-41B9-B0F4-EC8551305542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="122">
   <si>
     <t>INGENIERIA EN SISTEMAS - UTN FRBA</t>
   </si>
@@ -396,13 +396,16 @@
   </si>
   <si>
     <t>TOTAL DE MATERIAS restantes:</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +456,14 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +497,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,9 +576,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,13 +584,58 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,17 +644,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,36 +659,97 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -918,141 +1039,141 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11" t="s">
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="W3" s="23"/>
+      <c r="X3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="s">
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="11"/>
+      <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1070,35 +1191,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="15" t="str">
+      <c r="V5" s="37" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="str">
+      <c r="W5" s="37"/>
+      <c r="X5" s="37" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="25">
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="19">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="26"/>
+      <c r="AA5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1116,35 +1237,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="15" t="str">
+      <c r="V6" s="37" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15" t="str">
+      <c r="W6" s="37"/>
+      <c r="X6" s="37" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="25">
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="19">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="26"/>
+      <c r="AA6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1162,35 +1283,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="15" t="str">
+      <c r="V7" s="37" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15" t="str">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="25">
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="19">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="26"/>
+      <c r="AA7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1212,35 +1333,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="15" t="str">
+      <c r="V8" s="37" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15" t="str">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="25">
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1258,35 +1379,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="15" t="str">
+      <c r="V9" s="37" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="str">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="25">
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="19">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="26"/>
+      <c r="AA9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1310,35 +1431,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="15" t="str">
+      <c r="V10" s="37" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15" t="str">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="25">
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="26"/>
+      <c r="AA10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1358,34 +1479,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="15" t="str">
+      <c r="V11" s="37" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15" t="str">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="25">
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="19">
         <v>9</v>
       </c>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1401,30 +1522,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="15" t="str">
+      <c r="V12" s="37" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15" t="str">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="25">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="26"/>
+      <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1441,32 +1562,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="12" t="str">
+      <c r="V13" s="27" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="27" t="e">
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="16" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="28"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1486,119 +1607,130 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="15" t="str">
+      <c r="V14" s="37" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15" t="str">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="25">
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="19">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="26"/>
+      <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="5">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="11">
         <v>6</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="18" t="str">
+      <c r="J15" s="11">
+        <v>8</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>8</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="23" t="e">
+        <v>SI</v>
+      </c>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA15" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="18" t="str">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="11">
+        <v>6</v>
+      </c>
+      <c r="J16" s="11">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA16" s="24"/>
+        <v>SI</v>
+      </c>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="19">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1616,35 +1748,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="15" t="str">
+      <c r="V17" s="37" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15" t="str">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="25">
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="26"/>
+      <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1664,75 +1796,81 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="15" t="str">
+      <c r="V18" s="37" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15" t="str">
+      <c r="W18" s="37"/>
+      <c r="X18" s="37" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="25">
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="26"/>
+      <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="18" t="str">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="11">
+        <v>8</v>
+      </c>
+      <c r="J19" s="11">
+        <v>8</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="23" t="e">
+        <v>SI</v>
+      </c>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1750,35 +1888,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="15" t="str">
+      <c r="V20" s="37" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15" t="str">
+      <c r="W20" s="37"/>
+      <c r="X20" s="37" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="25">
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="26"/>
+      <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1794,30 +1932,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="15" t="str">
+      <c r="V21" s="37" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15" t="str">
+      <c r="W21" s="37"/>
+      <c r="X21" s="37" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="25">
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="19">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="26"/>
+      <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1834,355 +1972,375 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="12" t="str">
+      <c r="V22" s="27" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="27" t="e">
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="16" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="28"/>
+      <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="18" t="str">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="9">
+        <v>8</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9">
+        <v>2</v>
+      </c>
+      <c r="O23" s="9">
+        <v>6</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18" t="str">
+      <c r="W23" s="36"/>
+      <c r="X23" s="36" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="23" t="e">
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="24" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="24"/>
+      <c r="AA23" s="25"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="18" t="str">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18" t="str">
+      <c r="W24" s="26"/>
+      <c r="X24" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="23" t="e">
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="24"/>
+      <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="18" t="str">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18" t="str">
+      <c r="W25" s="26"/>
+      <c r="X25" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="23" t="e">
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="24"/>
+      <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="29">
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="9">
         <v>7</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="9">
         <v>10</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="9">
         <v>10</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="18" t="str">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18" t="str">
+      <c r="W26" s="36"/>
+      <c r="X26" s="36" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="23" t="e">
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="24" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="24"/>
+      <c r="AA26" s="25"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="18" t="str">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18" t="str">
+      <c r="W27" s="26"/>
+      <c r="X27" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="23" t="e">
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="24"/>
+      <c r="AA27" s="15"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="18" t="str">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="12">
+        <v>8</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="37" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="23" t="e">
+        <v>SI</v>
+      </c>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA28" s="20"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="18" t="str">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18" t="str">
+      <c r="W29" s="26"/>
+      <c r="X29" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="23" t="e">
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="24"/>
+      <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="18" t="str">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="10">
+        <v>4</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18" t="str">
+      <c r="W30" s="26"/>
+      <c r="X30" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="23" t="e">
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="24"/>
+      <c r="AA30" s="15"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2199,30 +2357,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="12" t="str">
+      <c r="V31" s="27" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="27" t="e">
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="16" t="e">
         <f t="shared" ref="Z31:Z45" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="28"/>
+      <c r="AA31" s="17"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2236,193 +2394,293 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="18" t="str">
+      <c r="V32" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18" t="str">
+      <c r="W32" s="26"/>
+      <c r="X32" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="23" t="e">
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="24"/>
+      <c r="AA32" s="15"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA33" s="24"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA33" s="22"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA34" s="24"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="22"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA35" s="24"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V35" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="22"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA36" s="24"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" s="22"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2436,73 +2694,98 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="18" t="str">
+      <c r="V37" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18" t="str">
+      <c r="W37" s="26"/>
+      <c r="X37" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="23" t="e">
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="24"/>
+      <c r="AA37" s="15"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA38" s="24"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA38" s="22"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2516,33 +2799,33 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="18" t="str">
+      <c r="V39" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18" t="str">
+      <c r="W39" s="26"/>
+      <c r="X39" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="23" t="e">
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="24"/>
+      <c r="AA39" s="15"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2556,73 +2839,98 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="18" t="str">
+      <c r="V40" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18" t="str">
+      <c r="W40" s="26"/>
+      <c r="X40" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="23" t="e">
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="24"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="AA40" s="15"/>
+    </row>
+    <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA41" s="24"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V41" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA41" s="22"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2636,33 +2944,33 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="18" t="str">
+      <c r="V42" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18" t="str">
+      <c r="W42" s="26"/>
+      <c r="X42" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="23" t="e">
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="24"/>
+      <c r="AA42" s="15"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2676,110 +2984,160 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="18" t="str">
+      <c r="V43" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18" t="str">
+      <c r="W43" s="26"/>
+      <c r="X43" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="23" t="e">
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="14" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="24"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="AA43" s="15"/>
+    </row>
+    <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA44" s="24"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V44" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA44" s="22"/>
+    </row>
+    <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA45" s="24"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V45" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA45" s="22"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2796,30 +3154,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="12" t="str">
+      <c r="V46" s="27" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="27" t="e">
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="16" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="28"/>
+      <c r="AA46" s="17"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -2833,33 +3191,33 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="18" t="str">
+      <c r="V47" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18" t="str">
+      <c r="W47" s="26"/>
+      <c r="X47" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="23" t="e">
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="24"/>
+      <c r="AA47" s="15"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2873,73 +3231,77 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="18" t="str">
+      <c r="V48" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18" t="str">
+      <c r="W48" s="26"/>
+      <c r="X48" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="23" t="e">
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="24"/>
+      <c r="AA48" s="15"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="18" t="str">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="10">
+        <v>7</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18" t="str">
+      <c r="W49" s="26"/>
+      <c r="X49" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="23" t="e">
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="24"/>
+      <c r="AA49" s="15"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2953,33 +3315,33 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="18" t="str">
+      <c r="V50" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18" t="str">
+      <c r="W50" s="26"/>
+      <c r="X50" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="23" t="e">
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="24"/>
+      <c r="AA50" s="15"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2993,33 +3355,33 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="18" t="str">
+      <c r="V51" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18" t="str">
+      <c r="W51" s="26"/>
+      <c r="X51" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="23" t="e">
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="24"/>
+      <c r="AA51" s="15"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3033,33 +3395,33 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="18" t="str">
+      <c r="V52" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18" t="str">
+      <c r="W52" s="26"/>
+      <c r="X52" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="23" t="e">
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="24"/>
+      <c r="AA52" s="15"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3073,30 +3435,30 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="18" t="str">
+      <c r="V53" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18" t="str">
+      <c r="W53" s="26"/>
+      <c r="X53" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="23" t="e">
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="14" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="24"/>
+      <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3113,30 +3475,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="12" t="str">
+      <c r="V54" s="27" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="27" t="e">
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="16" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="28"/>
+      <c r="AA54" s="17"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3150,33 +3512,33 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="18" t="str">
+      <c r="V55" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18" t="str">
+      <c r="W55" s="26"/>
+      <c r="X55" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="23" t="e">
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="24"/>
+      <c r="AA55" s="15"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3190,33 +3552,33 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="18" t="str">
+      <c r="V56" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18" t="str">
+      <c r="W56" s="26"/>
+      <c r="X56" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="23" t="e">
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="24"/>
+      <c r="AA56" s="15"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3230,33 +3592,33 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="18" t="str">
+      <c r="V57" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18" t="str">
+      <c r="W57" s="26"/>
+      <c r="X57" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="23" t="e">
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="24"/>
+      <c r="AA57" s="15"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3270,33 +3632,33 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="18" t="str">
+      <c r="V58" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18" t="str">
+      <c r="W58" s="26"/>
+      <c r="X58" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="23" t="e">
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="24"/>
+      <c r="AA58" s="15"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3310,33 +3672,33 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="18" t="str">
+      <c r="V59" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18" t="str">
+      <c r="W59" s="26"/>
+      <c r="X59" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="23" t="e">
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="24"/>
+      <c r="AA59" s="15"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3350,30 +3712,30 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="18" t="str">
+      <c r="V60" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18" t="str">
+      <c r="W60" s="26"/>
+      <c r="X60" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="23" t="e">
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="14" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="24"/>
+      <c r="AA60" s="15"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3390,30 +3752,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="12" t="str">
+      <c r="V61" s="27" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="27" t="e">
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="16" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="28"/>
+      <c r="AA61" s="17"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3427,33 +3789,33 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="18" t="str">
+      <c r="V62" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18" t="str">
+      <c r="W62" s="26"/>
+      <c r="X62" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="23" t="e">
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="24"/>
+      <c r="AA62" s="15"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3467,33 +3829,33 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="18" t="str">
+      <c r="V63" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18" t="str">
+      <c r="W63" s="26"/>
+      <c r="X63" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="23" t="e">
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="24"/>
+      <c r="AA63" s="15"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3507,33 +3869,33 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="18" t="str">
+      <c r="V64" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18" t="str">
+      <c r="W64" s="26"/>
+      <c r="X64" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="23" t="e">
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="24"/>
+      <c r="AA64" s="15"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3547,33 +3909,33 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="18" t="str">
+      <c r="V65" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18" t="str">
+      <c r="W65" s="26"/>
+      <c r="X65" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="23" t="e">
+      <c r="Y65" s="26"/>
+      <c r="Z65" s="14" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="24"/>
+      <c r="AA65" s="15"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3587,30 +3949,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="12" t="str">
+      <c r="V66" s="27" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="27" t="e">
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="16" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="28"/>
+      <c r="AA66" s="17"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3624,33 +3986,33 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="18" t="str">
+      <c r="V67" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18" t="str">
+      <c r="W67" s="26"/>
+      <c r="X67" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="23" t="e">
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="24"/>
+      <c r="AA67" s="15"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -3664,33 +4026,33 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="18" t="str">
+      <c r="V68" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18" t="str">
+      <c r="W68" s="26"/>
+      <c r="X68" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="23" t="e">
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="24"/>
+      <c r="AA68" s="15"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -3704,33 +4066,33 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="18" t="str">
+      <c r="V69" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18" t="str">
+      <c r="W69" s="26"/>
+      <c r="X69" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="23" t="e">
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="24"/>
+      <c r="AA69" s="15"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -3744,33 +4106,33 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="18" t="str">
+      <c r="V70" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18" t="str">
+      <c r="W70" s="26"/>
+      <c r="X70" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="23" t="e">
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="24"/>
+      <c r="AA70" s="15"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -3784,33 +4146,33 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="18" t="str">
+      <c r="V71" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18" t="str">
+      <c r="W71" s="26"/>
+      <c r="X71" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="23" t="e">
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="24"/>
+      <c r="AA71" s="15"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -3824,33 +4186,33 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="18" t="str">
+      <c r="V72" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18" t="str">
+      <c r="W72" s="26"/>
+      <c r="X72" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="23" t="e">
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="24"/>
+      <c r="AA72" s="15"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -3864,33 +4226,33 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="18" t="str">
+      <c r="V73" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18" t="str">
+      <c r="W73" s="26"/>
+      <c r="X73" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="23" t="e">
+      <c r="Y73" s="26"/>
+      <c r="Z73" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="24"/>
+      <c r="AA73" s="15"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -3904,33 +4266,33 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="18" t="str">
+      <c r="V74" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18" t="str">
+      <c r="W74" s="26"/>
+      <c r="X74" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="23" t="e">
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="24"/>
+      <c r="AA74" s="15"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -3944,33 +4306,33 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="18" t="str">
+      <c r="V75" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18" t="str">
+      <c r="W75" s="26"/>
+      <c r="X75" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="23" t="e">
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="24"/>
+      <c r="AA75" s="15"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3984,33 +4346,33 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="18" t="str">
+      <c r="V76" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18" t="str">
+      <c r="W76" s="26"/>
+      <c r="X76" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="23" t="e">
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="24"/>
+      <c r="AA76" s="15"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4024,33 +4386,33 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="18" t="str">
+      <c r="V77" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18" t="str">
+      <c r="W77" s="26"/>
+      <c r="X77" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="23" t="e">
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="24"/>
+      <c r="AA77" s="15"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4064,33 +4426,33 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="18" t="str">
+      <c r="V78" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18" t="str">
+      <c r="W78" s="26"/>
+      <c r="X78" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="23" t="e">
+      <c r="Y78" s="26"/>
+      <c r="Z78" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="24"/>
+      <c r="AA78" s="15"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4104,33 +4466,33 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="18" t="str">
+      <c r="V79" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18" t="str">
+      <c r="W79" s="26"/>
+      <c r="X79" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="23" t="e">
+      <c r="Y79" s="26"/>
+      <c r="Z79" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="24"/>
+      <c r="AA79" s="15"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4144,33 +4506,33 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="18" t="str">
+      <c r="V80" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18" t="str">
+      <c r="W80" s="26"/>
+      <c r="X80" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="23" t="e">
+      <c r="Y80" s="26"/>
+      <c r="Z80" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="24"/>
+      <c r="AA80" s="15"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4184,33 +4546,33 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="18" t="str">
+      <c r="V81" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18" t="str">
+      <c r="W81" s="26"/>
+      <c r="X81" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="23" t="e">
+      <c r="Y81" s="26"/>
+      <c r="Z81" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="24"/>
+      <c r="AA81" s="15"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4224,33 +4586,33 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="18" t="str">
+      <c r="V82" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18" t="str">
+      <c r="W82" s="26"/>
+      <c r="X82" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="23" t="e">
+      <c r="Y82" s="26"/>
+      <c r="Z82" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="24"/>
+      <c r="AA82" s="15"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4264,33 +4626,33 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="18" t="str">
+      <c r="V83" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18" t="str">
+      <c r="W83" s="26"/>
+      <c r="X83" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="23" t="e">
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="24"/>
+      <c r="AA83" s="15"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4304,33 +4666,33 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="18" t="str">
+      <c r="V84" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18" t="str">
+      <c r="W84" s="26"/>
+      <c r="X84" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="23" t="e">
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="24"/>
+      <c r="AA84" s="15"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4344,33 +4706,33 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="18" t="str">
+      <c r="V85" s="26" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18" t="str">
+      <c r="W85" s="26"/>
+      <c r="X85" s="26" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="23" t="e">
+      <c r="Y85" s="26"/>
+      <c r="Z85" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="24"/>
+      <c r="AA85" s="15"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4384,33 +4746,33 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="18" t="str">
+      <c r="V86" s="26" t="str">
         <f t="shared" ref="V86:V98" si="14">IF(OR(X86 = "SI",OR(R86 &gt;= 6, S86 &gt;= 6, T86 &gt;= 6, U86 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18" t="str">
+      <c r="W86" s="26"/>
+      <c r="X86" s="26" t="str">
         <f t="shared" ref="X86:X98" si="15">IF(AND(COUNTIF(L86:Q86, "&gt;0") &lt;= 1,  OR(I86&gt;=8,L86&gt;=8), OR(J86&gt;=8,N86&gt;=8,J86=0), OR(K86&gt;=8, P86&gt;=8, K86=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="23" t="e">
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="24"/>
+      <c r="AA86" s="15"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4424,33 +4786,33 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="18" t="str">
+      <c r="V87" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18" t="str">
+      <c r="W87" s="26"/>
+      <c r="X87" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="23" t="e">
+      <c r="Y87" s="26"/>
+      <c r="Z87" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="24"/>
+      <c r="AA87" s="15"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4464,33 +4826,33 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="18" t="str">
+      <c r="V88" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18" t="str">
+      <c r="W88" s="26"/>
+      <c r="X88" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="23" t="e">
+      <c r="Y88" s="26"/>
+      <c r="Z88" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="24"/>
+      <c r="AA88" s="15"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4504,33 +4866,33 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="18" t="str">
+      <c r="V89" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18" t="str">
+      <c r="W89" s="26"/>
+      <c r="X89" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="23" t="e">
+      <c r="Y89" s="26"/>
+      <c r="Z89" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="24"/>
+      <c r="AA89" s="15"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4544,33 +4906,33 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="18" t="str">
+      <c r="V90" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18" t="str">
+      <c r="W90" s="26"/>
+      <c r="X90" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="23" t="e">
+      <c r="Y90" s="26"/>
+      <c r="Z90" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="24"/>
+      <c r="AA90" s="15"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4584,33 +4946,33 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="18" t="str">
+      <c r="V91" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18" t="str">
+      <c r="W91" s="26"/>
+      <c r="X91" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="23" t="e">
+      <c r="Y91" s="26"/>
+      <c r="Z91" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="24"/>
+      <c r="AA91" s="15"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4624,33 +4986,33 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="18" t="str">
+      <c r="V92" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18" t="str">
+      <c r="W92" s="26"/>
+      <c r="X92" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="23" t="e">
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="24"/>
+      <c r="AA92" s="15"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -4664,33 +5026,33 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="18" t="str">
+      <c r="V93" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18" t="str">
+      <c r="W93" s="26"/>
+      <c r="X93" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="23" t="e">
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="24"/>
+      <c r="AA93" s="15"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -4704,33 +5066,33 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="18" t="str">
+      <c r="V94" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18" t="str">
+      <c r="W94" s="26"/>
+      <c r="X94" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="23" t="e">
+      <c r="Y94" s="26"/>
+      <c r="Z94" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="24"/>
+      <c r="AA94" s="15"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -4744,33 +5106,33 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="18" t="str">
+      <c r="V95" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18" t="str">
+      <c r="W95" s="26"/>
+      <c r="X95" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="23" t="e">
+      <c r="Y95" s="26"/>
+      <c r="Z95" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="24"/>
+      <c r="AA95" s="15"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -4784,33 +5146,33 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="18" t="str">
+      <c r="V96" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18" t="str">
+      <c r="W96" s="26"/>
+      <c r="X96" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="23" t="e">
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="24"/>
+      <c r="AA96" s="15"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -4824,33 +5186,33 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="18" t="str">
+      <c r="V97" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18" t="str">
+      <c r="W97" s="26"/>
+      <c r="X97" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="23" t="e">
+      <c r="Y97" s="26"/>
+      <c r="Z97" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="24"/>
+      <c r="AA97" s="15"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -4864,170 +5226,533 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="18" t="str">
+      <c r="V98" s="26" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18" t="str">
+      <c r="W98" s="26"/>
+      <c r="X98" s="26" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="23" t="e">
+      <c r="Y98" s="26"/>
+      <c r="Z98" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="24"/>
+      <c r="AA98" s="15"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="6">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="22" t="s">
+      <c r="K101" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="6">
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
-        <v>21</v>
-      </c>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="6">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="22" t="s">
+      <c r="K102" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="6">
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="22" t="s">
+      <c r="V102" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="6">
+      <c r="W102" s="18"/>
+      <c r="X102" s="18"/>
+      <c r="Y102" s="18"/>
+      <c r="Z102" s="18"/>
+      <c r="AA102" s="41">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
-        <v>8.384615384615385</v>
+        <v>8.4117647058823533</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="6">
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="22" t="s">
+      <c r="K103" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="6">
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="5">
         <f>Q101+Q102</f>
-        <v>73</v>
-      </c>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="483">
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Z59:AA59"/>
     <mergeCell ref="Z58:AA58"/>
     <mergeCell ref="Z62:AA62"/>
@@ -5052,420 +5777,92 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="Z60:AA60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="X5:Y98">
+  <conditionalFormatting sqref="X5:Y33 X37:Y37 X39:Y40 X42:Y43 X46:Y98">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34:Y34">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35:Y35">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36:Y36">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38:Y38">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X41:Y41">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44:Y44">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X45:Y45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef63814a693328aa/Documentos/UTN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071B601-1117-41B9-B0F4-EC8551305542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F071B601-1117-41B9-B0F4-EC8551305542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B376EC-AB5F-4E2A-A273-BA11B44DB97A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,26 +584,70 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,14 +658,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,52 +676,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,79 +1046,79 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
+      <c r="W3" s="17"/>
+      <c r="X3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23" t="s">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="23"/>
+      <c r="AA3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1154,26 +1161,26 @@
       <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1191,35 +1198,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="37" t="str">
+      <c r="V5" s="20" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37" t="str">
+      <c r="W5" s="20"/>
+      <c r="X5" s="20" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="19">
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="33">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="20"/>
+      <c r="AA5" s="34"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1237,35 +1244,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="37" t="str">
+      <c r="V6" s="20" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37" t="str">
+      <c r="W6" s="20"/>
+      <c r="X6" s="20" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="19">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="33">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="34"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1283,35 +1290,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="37" t="str">
+      <c r="V7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37" t="str">
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="19">
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="33">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="20"/>
+      <c r="AA7" s="34"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1333,35 +1340,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="37" t="str">
+      <c r="V8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37" t="str">
+      <c r="W8" s="20"/>
+      <c r="X8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="19">
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="34"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1379,35 +1386,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="37" t="str">
+      <c r="V9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37" t="str">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="19">
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="33">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="20"/>
+      <c r="AA9" s="34"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1431,35 +1438,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="37" t="str">
+      <c r="V10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37" t="str">
+      <c r="W10" s="20"/>
+      <c r="X10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="19">
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="33">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="20"/>
+      <c r="AA10" s="34"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1479,34 +1486,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="37" t="str">
+      <c r="V11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37" t="str">
+      <c r="W11" s="20"/>
+      <c r="X11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="19">
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="33">
         <v>9</v>
       </c>
-      <c r="AA11" s="20"/>
+      <c r="AA11" s="34"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1522,30 +1529,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="37" t="str">
+      <c r="V12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37" t="str">
+      <c r="W12" s="20"/>
+      <c r="X12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="19">
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="33">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="20"/>
+      <c r="AA12" s="34"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1562,32 +1569,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="27" t="str">
+      <c r="V13" s="18" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="16" t="e">
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="35" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="17"/>
+      <c r="AA13" s="36"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1607,130 +1614,130 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="37" t="str">
+      <c r="V14" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37" t="str">
+      <c r="W14" s="20"/>
+      <c r="X14" s="20" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="19">
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="33">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="20"/>
+      <c r="AA14" s="34"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="11">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="10">
         <v>6</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>8</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10">
         <v>8</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="37" t="str">
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37" t="str">
+      <c r="W15" s="20"/>
+      <c r="X15" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="19">
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="33">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA15" s="20"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="11">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="10">
         <v>6</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>10</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
         <v>10</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="37" t="str">
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37" t="str">
+      <c r="W16" s="20"/>
+      <c r="X16" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="19">
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="33">
         <v>10</v>
       </c>
-      <c r="AA16" s="20"/>
+      <c r="AA16" s="34"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1748,35 +1755,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="37" t="str">
+      <c r="V17" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37" t="str">
+      <c r="W17" s="20"/>
+      <c r="X17" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="19">
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="33">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="20"/>
+      <c r="AA17" s="34"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1796,81 +1803,81 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="37" t="str">
+      <c r="V18" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37" t="str">
+      <c r="W18" s="20"/>
+      <c r="X18" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="19">
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="33">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="20"/>
+      <c r="AA18" s="34"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="11">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="10">
         <v>8</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>8</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="37" t="str">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37" t="str">
+      <c r="W19" s="20"/>
+      <c r="X19" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="19">
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="33">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="20"/>
+      <c r="AA19" s="34"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1888,35 +1895,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="37" t="str">
+      <c r="V20" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37" t="str">
+      <c r="W20" s="20"/>
+      <c r="X20" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="19">
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="33">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="20"/>
+      <c r="AA20" s="34"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1932,30 +1939,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="37" t="str">
+      <c r="V21" s="20" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37" t="str">
+      <c r="W21" s="20"/>
+      <c r="X21" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="19">
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="33">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="20"/>
+      <c r="AA21" s="34"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1972,375 +1979,377 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="27" t="str">
+      <c r="V22" s="18" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="16" t="e">
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="35" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="17"/>
+      <c r="AA22" s="36"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="9">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="13">
         <v>8</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="13">
         <v>2</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9">
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13">
         <v>2</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="13">
         <v>6</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="36" t="str">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="27" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36" t="str">
+      <c r="W23" s="27"/>
+      <c r="X23" s="27" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="24" t="e">
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="39" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="25"/>
+      <c r="AA23" s="40"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="26" t="str">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26" t="str">
+      <c r="W24" s="28"/>
+      <c r="X24" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="14" t="e">
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="15"/>
+      <c r="AA24" s="38"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="26" t="str">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26" t="str">
+      <c r="W25" s="28"/>
+      <c r="X25" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="14" t="e">
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="15"/>
+      <c r="AA25" s="38"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="9">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="14">
         <v>7</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="14">
         <v>10</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="14">
         <v>10</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="24" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA26" s="25"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="15"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="12">
-        <v>8</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="37" t="str">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14">
+        <v>7</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="20" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37" t="str">
+      <c r="W26" s="20"/>
+      <c r="X26" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="33">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AA26" s="34"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="37" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="38"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="14">
+        <v>8</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>SI</v>
+      </c>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="19">
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="33">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="34"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="26" t="str">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26" t="str">
+      <c r="W29" s="28"/>
+      <c r="X29" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="14" t="e">
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="15"/>
+      <c r="AA29" s="38"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="10">
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="12">
         <v>4</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="26" t="str">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26" t="str">
+      <c r="W30" s="28"/>
+      <c r="X30" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="14" t="e">
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="37" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="15"/>
+      <c r="AA30" s="38"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2357,30 +2366,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="27" t="str">
+      <c r="V31" s="18" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="16" t="e">
-        <f t="shared" ref="Z31:Z45" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="17"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="35" t="e">
+        <f t="shared" ref="Z31:Z43" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="36"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2394,293 +2403,293 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="26" t="str">
+      <c r="V32" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26" t="str">
+      <c r="W32" s="28"/>
+      <c r="X32" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="14" t="e">
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="37" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="15"/>
+      <c r="AA32" s="38"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V33" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA33" s="22"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V33" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA33" s="42"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V34" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA34" s="22"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V34" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="42"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V35" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="22"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V35" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="42"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V36" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA36" s="22"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V36" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" s="42"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2694,98 +2703,98 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="26" t="str">
+      <c r="V37" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26" t="str">
+      <c r="W37" s="28"/>
+      <c r="X37" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="14" t="e">
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="37" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="15"/>
+      <c r="AA37" s="38"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V38" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA38" s="22"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V38" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA38" s="42"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2799,33 +2808,33 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="26" t="str">
+      <c r="V39" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26" t="str">
+      <c r="W39" s="28"/>
+      <c r="X39" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="14" t="e">
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="37" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="15"/>
+      <c r="AA39" s="38"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2839,98 +2848,98 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="26" t="str">
+      <c r="V40" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26" t="str">
+      <c r="W40" s="28"/>
+      <c r="X40" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="14" t="e">
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="37" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="15"/>
+      <c r="AA40" s="38"/>
     </row>
     <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V41" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA41" s="22"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V41" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA41" s="42"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2944,33 +2953,33 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="26" t="str">
+      <c r="V42" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26" t="str">
+      <c r="W42" s="28"/>
+      <c r="X42" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="14" t="e">
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="37" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="15"/>
+      <c r="AA42" s="38"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2984,160 +2993,160 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="26" t="str">
+      <c r="V43" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26" t="str">
+      <c r="W43" s="28"/>
+      <c r="X43" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="14" t="e">
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="37" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="15"/>
+      <c r="AA43" s="38"/>
     </row>
     <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V44" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA44" s="22"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V44" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA44" s="42"/>
     </row>
     <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="V45" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA45" s="22"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="V45" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA45" s="42"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3154,30 +3163,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="27" t="str">
+      <c r="V46" s="18" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="16" t="e">
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="35" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="17"/>
+      <c r="AA46" s="36"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3191,33 +3200,33 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="26" t="str">
+      <c r="V47" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26" t="str">
+      <c r="W47" s="28"/>
+      <c r="X47" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="14" t="e">
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="15"/>
+      <c r="AA47" s="38"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3231,77 +3240,77 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="26" t="str">
+      <c r="V48" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26" t="str">
+      <c r="W48" s="28"/>
+      <c r="X48" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="14" t="e">
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="15"/>
+      <c r="AA48" s="38"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="10">
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="9">
         <v>7</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="26" t="str">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26" t="str">
+      <c r="W49" s="28"/>
+      <c r="X49" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="14" t="e">
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="15"/>
+      <c r="AA49" s="38"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3315,33 +3324,33 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="26" t="str">
+      <c r="V50" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26" t="str">
+      <c r="W50" s="28"/>
+      <c r="X50" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="14" t="e">
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="15"/>
+      <c r="AA50" s="38"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3355,33 +3364,33 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="26" t="str">
+      <c r="V51" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26" t="str">
+      <c r="W51" s="28"/>
+      <c r="X51" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="14" t="e">
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="15"/>
+      <c r="AA51" s="38"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3395,33 +3404,33 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="26" t="str">
+      <c r="V52" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26" t="str">
+      <c r="W52" s="28"/>
+      <c r="X52" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="14" t="e">
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="15"/>
+      <c r="AA52" s="38"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3435,30 +3444,30 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="26" t="str">
+      <c r="V53" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26" t="str">
+      <c r="W53" s="28"/>
+      <c r="X53" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="14" t="e">
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="37" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="15"/>
+      <c r="AA53" s="38"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3475,30 +3484,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="27" t="str">
+      <c r="V54" s="18" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="16" t="e">
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="35" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="17"/>
+      <c r="AA54" s="36"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3512,33 +3521,33 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="26" t="str">
+      <c r="V55" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26" t="str">
+      <c r="W55" s="28"/>
+      <c r="X55" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="14" t="e">
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="15"/>
+      <c r="AA55" s="38"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3552,33 +3561,33 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="26" t="str">
+      <c r="V56" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26" t="str">
+      <c r="W56" s="28"/>
+      <c r="X56" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="14" t="e">
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="15"/>
+      <c r="AA56" s="38"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3592,33 +3601,33 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="26" t="str">
+      <c r="V57" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26" t="str">
+      <c r="W57" s="28"/>
+      <c r="X57" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="14" t="e">
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="15"/>
+      <c r="AA57" s="38"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3632,33 +3641,33 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="26" t="str">
+      <c r="V58" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26" t="str">
+      <c r="W58" s="28"/>
+      <c r="X58" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="14" t="e">
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="15"/>
+      <c r="AA58" s="38"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3672,33 +3681,33 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="26" t="str">
+      <c r="V59" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26" t="str">
+      <c r="W59" s="28"/>
+      <c r="X59" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="14" t="e">
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="15"/>
+      <c r="AA59" s="38"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3712,30 +3721,30 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="26" t="str">
+      <c r="V60" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26" t="str">
+      <c r="W60" s="28"/>
+      <c r="X60" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="14" t="e">
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="15"/>
+      <c r="AA60" s="38"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3752,30 +3761,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="27" t="str">
+      <c r="V61" s="18" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="16" t="e">
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="35" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="17"/>
+      <c r="AA61" s="36"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3789,33 +3798,33 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="26" t="str">
+      <c r="V62" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26" t="str">
+      <c r="W62" s="28"/>
+      <c r="X62" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="14" t="e">
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="37" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="15"/>
+      <c r="AA62" s="38"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3829,33 +3838,33 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="26" t="str">
+      <c r="V63" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26" t="str">
+      <c r="W63" s="28"/>
+      <c r="X63" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="14" t="e">
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="37" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="15"/>
+      <c r="AA63" s="38"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3869,33 +3878,33 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="26" t="str">
+      <c r="V64" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W64" s="26"/>
-      <c r="X64" s="26" t="str">
+      <c r="W64" s="28"/>
+      <c r="X64" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="14" t="e">
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="37" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="15"/>
+      <c r="AA64" s="38"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3909,33 +3918,33 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="26" t="str">
+      <c r="V65" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26" t="str">
+      <c r="W65" s="28"/>
+      <c r="X65" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="14" t="e">
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="37" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="15"/>
+      <c r="AA65" s="38"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3949,30 +3958,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="27" t="str">
+      <c r="V66" s="18" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="16" t="e">
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="35" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="17"/>
+      <c r="AA66" s="36"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3986,33 +3995,33 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="26" t="str">
+      <c r="V67" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W67" s="26"/>
-      <c r="X67" s="26" t="str">
+      <c r="W67" s="28"/>
+      <c r="X67" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="14" t="e">
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="15"/>
+      <c r="AA67" s="38"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -4026,33 +4035,33 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="26" t="str">
+      <c r="V68" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W68" s="26"/>
-      <c r="X68" s="26" t="str">
+      <c r="W68" s="28"/>
+      <c r="X68" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="14" t="e">
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="15"/>
+      <c r="AA68" s="38"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -4066,33 +4075,33 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="26" t="str">
+      <c r="V69" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26" t="str">
+      <c r="W69" s="28"/>
+      <c r="X69" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="14" t="e">
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="15"/>
+      <c r="AA69" s="38"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4106,33 +4115,33 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="26" t="str">
+      <c r="V70" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26" t="str">
+      <c r="W70" s="28"/>
+      <c r="X70" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="14" t="e">
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="15"/>
+      <c r="AA70" s="38"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -4146,33 +4155,33 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="26" t="str">
+      <c r="V71" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26" t="str">
+      <c r="W71" s="28"/>
+      <c r="X71" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="14" t="e">
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="15"/>
+      <c r="AA71" s="38"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -4186,33 +4195,33 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="26" t="str">
+      <c r="V72" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W72" s="26"/>
-      <c r="X72" s="26" t="str">
+      <c r="W72" s="28"/>
+      <c r="X72" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="14" t="e">
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="15"/>
+      <c r="AA72" s="38"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4226,33 +4235,33 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="26" t="str">
+      <c r="V73" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W73" s="26"/>
-      <c r="X73" s="26" t="str">
+      <c r="W73" s="28"/>
+      <c r="X73" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="14" t="e">
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="15"/>
+      <c r="AA73" s="38"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4266,33 +4275,33 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="26" t="str">
+      <c r="V74" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W74" s="26"/>
-      <c r="X74" s="26" t="str">
+      <c r="W74" s="28"/>
+      <c r="X74" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="14" t="e">
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="15"/>
+      <c r="AA74" s="38"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -4306,33 +4315,33 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="26" t="str">
+      <c r="V75" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W75" s="26"/>
-      <c r="X75" s="26" t="str">
+      <c r="W75" s="28"/>
+      <c r="X75" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="14" t="e">
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="15"/>
+      <c r="AA75" s="38"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -4346,33 +4355,33 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="26" t="str">
+      <c r="V76" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W76" s="26"/>
-      <c r="X76" s="26" t="str">
+      <c r="W76" s="28"/>
+      <c r="X76" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="14" t="e">
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="15"/>
+      <c r="AA76" s="38"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4386,33 +4395,33 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="26" t="str">
+      <c r="V77" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W77" s="26"/>
-      <c r="X77" s="26" t="str">
+      <c r="W77" s="28"/>
+      <c r="X77" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y77" s="26"/>
-      <c r="Z77" s="14" t="e">
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="15"/>
+      <c r="AA77" s="38"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4426,33 +4435,33 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="26" t="str">
+      <c r="V78" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W78" s="26"/>
-      <c r="X78" s="26" t="str">
+      <c r="W78" s="28"/>
+      <c r="X78" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="14" t="e">
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="15"/>
+      <c r="AA78" s="38"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4466,33 +4475,33 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="26" t="str">
+      <c r="V79" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W79" s="26"/>
-      <c r="X79" s="26" t="str">
+      <c r="W79" s="28"/>
+      <c r="X79" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="14" t="e">
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="15"/>
+      <c r="AA79" s="38"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4506,33 +4515,33 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="26" t="str">
+      <c r="V80" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W80" s="26"/>
-      <c r="X80" s="26" t="str">
+      <c r="W80" s="28"/>
+      <c r="X80" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="14" t="e">
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="15"/>
+      <c r="AA80" s="38"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4546,33 +4555,33 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="26" t="str">
+      <c r="V81" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W81" s="26"/>
-      <c r="X81" s="26" t="str">
+      <c r="W81" s="28"/>
+      <c r="X81" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y81" s="26"/>
-      <c r="Z81" s="14" t="e">
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="15"/>
+      <c r="AA81" s="38"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4586,33 +4595,33 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="26" t="str">
+      <c r="V82" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W82" s="26"/>
-      <c r="X82" s="26" t="str">
+      <c r="W82" s="28"/>
+      <c r="X82" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y82" s="26"/>
-      <c r="Z82" s="14" t="e">
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="15"/>
+      <c r="AA82" s="38"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4626,33 +4635,33 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="26" t="str">
+      <c r="V83" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26" t="str">
+      <c r="W83" s="28"/>
+      <c r="X83" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="14" t="e">
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="15"/>
+      <c r="AA83" s="38"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4666,33 +4675,33 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="26" t="str">
+      <c r="V84" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26" t="str">
+      <c r="W84" s="28"/>
+      <c r="X84" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="14" t="e">
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="15"/>
+      <c r="AA84" s="38"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4706,33 +4715,33 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="26" t="str">
+      <c r="V85" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W85" s="26"/>
-      <c r="X85" s="26" t="str">
+      <c r="W85" s="28"/>
+      <c r="X85" s="28" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y85" s="26"/>
-      <c r="Z85" s="14" t="e">
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="15"/>
+      <c r="AA85" s="38"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4746,33 +4755,33 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="26" t="str">
+      <c r="V86" s="28" t="str">
         <f t="shared" ref="V86:V98" si="14">IF(OR(X86 = "SI",OR(R86 &gt;= 6, S86 &gt;= 6, T86 &gt;= 6, U86 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W86" s="26"/>
-      <c r="X86" s="26" t="str">
+      <c r="W86" s="28"/>
+      <c r="X86" s="28" t="str">
         <f t="shared" ref="X86:X98" si="15">IF(AND(COUNTIF(L86:Q86, "&gt;0") &lt;= 1,  OR(I86&gt;=8,L86&gt;=8), OR(J86&gt;=8,N86&gt;=8,J86=0), OR(K86&gt;=8, P86&gt;=8, K86=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y86" s="26"/>
-      <c r="Z86" s="14" t="e">
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="15"/>
+      <c r="AA86" s="38"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4786,33 +4795,33 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="26" t="str">
+      <c r="V87" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W87" s="26"/>
-      <c r="X87" s="26" t="str">
+      <c r="W87" s="28"/>
+      <c r="X87" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y87" s="26"/>
-      <c r="Z87" s="14" t="e">
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="15"/>
+      <c r="AA87" s="38"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4826,33 +4835,33 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="26" t="str">
+      <c r="V88" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W88" s="26"/>
-      <c r="X88" s="26" t="str">
+      <c r="W88" s="28"/>
+      <c r="X88" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y88" s="26"/>
-      <c r="Z88" s="14" t="e">
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="15"/>
+      <c r="AA88" s="38"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4866,33 +4875,33 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="26" t="str">
+      <c r="V89" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W89" s="26"/>
-      <c r="X89" s="26" t="str">
+      <c r="W89" s="28"/>
+      <c r="X89" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y89" s="26"/>
-      <c r="Z89" s="14" t="e">
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="15"/>
+      <c r="AA89" s="38"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4906,33 +4915,33 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="26" t="str">
+      <c r="V90" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W90" s="26"/>
-      <c r="X90" s="26" t="str">
+      <c r="W90" s="28"/>
+      <c r="X90" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="14" t="e">
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="15"/>
+      <c r="AA90" s="38"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4946,33 +4955,33 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="26" t="str">
+      <c r="V91" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W91" s="26"/>
-      <c r="X91" s="26" t="str">
+      <c r="W91" s="28"/>
+      <c r="X91" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y91" s="26"/>
-      <c r="Z91" s="14" t="e">
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="15"/>
+      <c r="AA91" s="38"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4986,33 +4995,33 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="26" t="str">
+      <c r="V92" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26" t="str">
+      <c r="W92" s="28"/>
+      <c r="X92" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="14" t="e">
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="15"/>
+      <c r="AA92" s="38"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5026,33 +5035,33 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="26" t="str">
+      <c r="V93" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26" t="str">
+      <c r="W93" s="28"/>
+      <c r="X93" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="14" t="e">
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="15"/>
+      <c r="AA93" s="38"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5066,33 +5075,33 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="26" t="str">
+      <c r="V94" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W94" s="26"/>
-      <c r="X94" s="26" t="str">
+      <c r="W94" s="28"/>
+      <c r="X94" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y94" s="26"/>
-      <c r="Z94" s="14" t="e">
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="15"/>
+      <c r="AA94" s="38"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -5106,33 +5115,33 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="26" t="str">
+      <c r="V95" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W95" s="26"/>
-      <c r="X95" s="26" t="str">
+      <c r="W95" s="28"/>
+      <c r="X95" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y95" s="26"/>
-      <c r="Z95" s="14" t="e">
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="15"/>
+      <c r="AA95" s="38"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -5146,33 +5155,33 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="26" t="str">
+      <c r="V96" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W96" s="26"/>
-      <c r="X96" s="26" t="str">
+      <c r="W96" s="28"/>
+      <c r="X96" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="14" t="e">
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="15"/>
+      <c r="AA96" s="38"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -5186,33 +5195,33 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="26" t="str">
+      <c r="V97" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W97" s="26"/>
-      <c r="X97" s="26" t="str">
+      <c r="W97" s="28"/>
+      <c r="X97" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y97" s="26"/>
-      <c r="Z97" s="14" t="e">
+      <c r="Y97" s="28"/>
+      <c r="Z97" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="15"/>
+      <c r="AA97" s="38"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5226,45 +5235,45 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="26" t="str">
+      <c r="V98" s="28" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W98" s="26"/>
-      <c r="X98" s="26" t="str">
+      <c r="W98" s="28"/>
+      <c r="X98" s="28" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y98" s="26"/>
-      <c r="Z98" s="14" t="e">
+      <c r="Y98" s="28"/>
+      <c r="Z98" s="37" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="15"/>
+      <c r="AA98" s="38"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
       <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="18" t="s">
+      <c r="K101" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
       <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
@@ -5274,64 +5283,64 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
       <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="18" t="s">
+      <c r="K102" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
       <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="18" t="s">
+      <c r="V102" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
-      <c r="AA102" s="41">
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="32"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="15">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
-        <v>8.4117647058823533</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="18" t="s">
+      <c r="K103" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
       <c r="Q103" s="5">
         <f>Q101+Q102</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
@@ -5342,6 +5351,465 @@
     </row>
   </sheetData>
   <mergeCells count="483">
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V22:W22"/>
@@ -5366,465 +5834,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="Z60:AA60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="X5:Y33 X37:Y37 X39:Y40 X42:Y43 X46:Y98">

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef63814a693328aa/Documentos/UTN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tambo\OneDrive\Documentos\UTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F071B601-1117-41B9-B0F4-EC8551305542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B376EC-AB5F-4E2A-A273-BA11B44DB97A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5EDF25-A8A8-44B2-91B3-B4FFC76DD3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +590,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,53 +606,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,17 +633,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,10 +648,66 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,79 +1074,79 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17" t="s">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="26"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1161,26 +1189,26 @@
       <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1198,35 +1226,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="20" t="str">
+      <c r="V5" s="41" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20" t="str">
+      <c r="W5" s="41"/>
+      <c r="X5" s="41" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="33">
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="22">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="34"/>
+      <c r="AA5" s="23"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1244,35 +1272,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="20" t="str">
+      <c r="V6" s="41" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20" t="str">
+      <c r="W6" s="41"/>
+      <c r="X6" s="41" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="33">
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="22">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="34"/>
+      <c r="AA6" s="23"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1290,35 +1318,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="20" t="str">
+      <c r="V7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20" t="str">
+      <c r="W7" s="41"/>
+      <c r="X7" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="33">
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="34"/>
+      <c r="AA7" s="23"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1340,35 +1368,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="20" t="str">
+      <c r="V8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20" t="str">
+      <c r="W8" s="41"/>
+      <c r="X8" s="41" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="33">
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="22">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="34"/>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1386,35 +1414,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="20" t="str">
+      <c r="V9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20" t="str">
+      <c r="W9" s="41"/>
+      <c r="X9" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="33">
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="34"/>
+      <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1438,35 +1466,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="20" t="str">
+      <c r="V10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20" t="str">
+      <c r="W10" s="41"/>
+      <c r="X10" s="41" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="33">
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="34"/>
+      <c r="AA10" s="23"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1486,34 +1514,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="20" t="str">
+      <c r="V11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20" t="str">
+      <c r="W11" s="41"/>
+      <c r="X11" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="33">
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="22">
         <v>9</v>
       </c>
-      <c r="AA11" s="34"/>
+      <c r="AA11" s="23"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1529,30 +1557,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="20" t="str">
+      <c r="V12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20" t="str">
+      <c r="W12" s="41"/>
+      <c r="X12" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="33">
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="22">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="34"/>
+      <c r="AA12" s="23"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1569,32 +1597,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="18" t="str">
+      <c r="V13" s="30" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="35" t="e">
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="19" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="36"/>
+      <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1614,130 +1642,130 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="20" t="str">
+      <c r="V14" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20" t="str">
+      <c r="W14" s="41"/>
+      <c r="X14" s="41" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="33">
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="22">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="34"/>
+      <c r="AA14" s="23"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="10">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="9">
         <v>6</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>8</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
         <v>8</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="20" t="str">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20" t="str">
+      <c r="W15" s="41"/>
+      <c r="X15" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="33">
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA15" s="34"/>
+      <c r="AA15" s="23"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="10">
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>10</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <v>10</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="20" t="str">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20" t="str">
+      <c r="W16" s="41"/>
+      <c r="X16" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="33">
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="22">
         <v>10</v>
       </c>
-      <c r="AA16" s="34"/>
+      <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1755,35 +1783,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="20" t="str">
+      <c r="V17" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20" t="str">
+      <c r="W17" s="41"/>
+      <c r="X17" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="33">
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="22">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="34"/>
+      <c r="AA17" s="23"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1803,81 +1831,81 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="20" t="str">
+      <c r="V18" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20" t="str">
+      <c r="W18" s="41"/>
+      <c r="X18" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="33">
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="22">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="34"/>
+      <c r="AA18" s="23"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="10">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="9">
         <v>8</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>8</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="20" t="str">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20" t="str">
+      <c r="W19" s="41"/>
+      <c r="X19" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="33">
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="34"/>
+      <c r="AA19" s="23"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1895,35 +1923,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="20" t="str">
+      <c r="V20" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20" t="str">
+      <c r="W20" s="41"/>
+      <c r="X20" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="33">
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="22">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="34"/>
+      <c r="AA20" s="23"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1939,30 +1967,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="20" t="str">
+      <c r="V21" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20" t="str">
+      <c r="W21" s="41"/>
+      <c r="X21" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="33">
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="34"/>
+      <c r="AA21" s="23"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1979,377 +2007,381 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="18" t="str">
+      <c r="V22" s="30" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="35" t="e">
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="19" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="36"/>
+      <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="13">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="12">
         <v>8</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>2</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12">
         <v>2</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="12">
         <v>6</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="27" t="str">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="40" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27" t="str">
+      <c r="W23" s="40"/>
+      <c r="X23" s="40" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="39" t="e">
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="40"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="28" t="str">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
+        <v>3</v>
+      </c>
+      <c r="M24" s="15">
+        <v>6</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="40" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28" t="str">
+      <c r="W24" s="40"/>
+      <c r="X24" s="40" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="37" t="e">
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="27" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="38"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="28" t="str">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28" t="str">
+      <c r="W25" s="29"/>
+      <c r="X25" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="37" t="e">
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="38"/>
+      <c r="AA25" s="18"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14">
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="13">
         <v>7</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>10</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>10</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13">
         <v>7</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="20" t="str">
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="41" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20" t="str">
+      <c r="W26" s="41"/>
+      <c r="X26" s="41" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="33">
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="22">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AA26" s="34"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="28" t="str">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28" t="str">
+      <c r="W27" s="29"/>
+      <c r="X27" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="37" t="e">
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="38"/>
+      <c r="AA27" s="18"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="14">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="13">
         <v>8</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="20" t="str">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="41" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20" t="str">
+      <c r="W28" s="41"/>
+      <c r="X28" s="41" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="33">
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="22">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AA28" s="34"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="28" t="str">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28" t="str">
+      <c r="W29" s="29"/>
+      <c r="X29" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="37" t="e">
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="38"/>
+      <c r="AA29" s="18"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="12">
-        <v>4</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="28" t="str">
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28" t="str">
+      <c r="W30" s="29"/>
+      <c r="X30" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="37" t="e">
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="38"/>
+      <c r="AA30" s="18"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2366,30 +2398,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="18" t="str">
+      <c r="V31" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="35" t="e">
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="19" t="e">
         <f t="shared" ref="Z31:Z43" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="36"/>
+      <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2403,267 +2435,267 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="28" t="str">
+      <c r="V32" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28" t="str">
+      <c r="W32" s="29"/>
+      <c r="X32" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="37" t="e">
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="38"/>
+      <c r="AA32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA33" s="42"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V33" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA33" s="25"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA34" s="42"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V34" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="25"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="42"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V35" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="25"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U36" s="11" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="U36" s="16" t="s">
         <v>121</v>
       </c>
       <c r="V36" s="29" t="s">
@@ -2674,22 +2706,22 @@
         <v>121</v>
       </c>
       <c r="Y36" s="29"/>
-      <c r="Z36" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA36" s="42"/>
+      <c r="Z36" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" s="18"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2703,98 +2735,98 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="28" t="str">
+      <c r="V37" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28" t="str">
+      <c r="W37" s="29"/>
+      <c r="X37" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="37" t="e">
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="38"/>
+      <c r="AA37" s="18"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA38" s="42"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V38" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA38" s="25"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2808,33 +2840,33 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="28" t="str">
+      <c r="V39" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28" t="str">
+      <c r="W39" s="29"/>
+      <c r="X39" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="37" t="e">
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="38"/>
+      <c r="AA39" s="18"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2848,98 +2880,98 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="28" t="str">
+      <c r="V40" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28" t="str">
+      <c r="W40" s="29"/>
+      <c r="X40" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="37" t="e">
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="38"/>
+      <c r="AA40" s="18"/>
     </row>
     <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA41" s="42"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V41" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA41" s="25"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2953,33 +2985,33 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="28" t="str">
+      <c r="V42" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28" t="str">
+      <c r="W42" s="29"/>
+      <c r="X42" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="37" t="e">
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="38"/>
+      <c r="AA42" s="18"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2993,160 +3025,160 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="28" t="str">
+      <c r="V43" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28" t="str">
+      <c r="W43" s="29"/>
+      <c r="X43" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="37" t="e">
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="38"/>
+      <c r="AA43" s="18"/>
     </row>
     <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V44" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA44" s="42"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA44" s="25"/>
     </row>
     <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V45" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA45" s="42"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA45" s="25"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3163,30 +3195,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="18" t="str">
+      <c r="V46" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="35" t="e">
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="19" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="36"/>
+      <c r="AA46" s="20"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3200,33 +3232,33 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="28" t="str">
+      <c r="V47" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28" t="str">
+      <c r="W47" s="29"/>
+      <c r="X47" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="37" t="e">
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="38"/>
+      <c r="AA47" s="18"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3240,77 +3272,79 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="28" t="str">
+      <c r="V48" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28" t="str">
+      <c r="W48" s="29"/>
+      <c r="X48" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="37" t="e">
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="38"/>
+      <c r="AA48" s="18"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="9">
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="44">
         <v>7</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="28" t="str">
+      <c r="J49" s="44">
+        <v>7</v>
+      </c>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="40" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28" t="str">
+      <c r="W49" s="40"/>
+      <c r="X49" s="40" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="37" t="e">
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="38"/>
+      <c r="AA49" s="28"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3324,33 +3358,33 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="28" t="str">
+      <c r="V50" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28" t="str">
+      <c r="W50" s="29"/>
+      <c r="X50" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="37" t="e">
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="38"/>
+      <c r="AA50" s="18"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3364,33 +3398,33 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="28" t="str">
+      <c r="V51" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28" t="str">
+      <c r="W51" s="29"/>
+      <c r="X51" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="37" t="e">
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="38"/>
+      <c r="AA51" s="18"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3404,33 +3438,33 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="28" t="str">
+      <c r="V52" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28" t="str">
+      <c r="W52" s="29"/>
+      <c r="X52" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="37" t="e">
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="38"/>
+      <c r="AA52" s="18"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3444,30 +3478,30 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="28" t="str">
+      <c r="V53" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28" t="str">
+      <c r="W53" s="29"/>
+      <c r="X53" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="37" t="e">
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="38"/>
+      <c r="AA53" s="18"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3484,70 +3518,70 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="18" t="str">
+      <c r="V54" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="35" t="e">
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="19" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="36"/>
+      <c r="AA54" s="20"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="28" t="str">
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28" t="str">
+      <c r="W55" s="48"/>
+      <c r="X55" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="37" t="e">
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="49" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="38"/>
+      <c r="AA55" s="50"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3561,73 +3595,73 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="28" t="str">
+      <c r="V56" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28" t="str">
+      <c r="W56" s="29"/>
+      <c r="X56" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="37" t="e">
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="38"/>
+      <c r="AA56" s="18"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="28" t="str">
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28" t="str">
+      <c r="W57" s="48"/>
+      <c r="X57" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="37" t="e">
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="49" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="38"/>
+      <c r="AA57" s="50"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3641,33 +3675,33 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="28" t="str">
+      <c r="V58" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28" t="str">
+      <c r="W58" s="29"/>
+      <c r="X58" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="37" t="e">
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="38"/>
+      <c r="AA58" s="18"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3681,70 +3715,70 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="28" t="str">
+      <c r="V59" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28" t="str">
+      <c r="W59" s="29"/>
+      <c r="X59" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="37" t="e">
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="38"/>
+      <c r="AA59" s="18"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="28" t="str">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28" t="str">
+      <c r="W60" s="48"/>
+      <c r="X60" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="37" t="e">
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="49" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="38"/>
+      <c r="AA60" s="50"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3761,30 +3795,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="18" t="str">
+      <c r="V61" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="35" t="e">
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="19" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="36"/>
+      <c r="AA61" s="20"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3798,33 +3832,33 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="28" t="str">
+      <c r="V62" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28" t="str">
+      <c r="W62" s="29"/>
+      <c r="X62" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="37" t="e">
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="38"/>
+      <c r="AA62" s="18"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3838,33 +3872,33 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="28" t="str">
+      <c r="V63" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28" t="str">
+      <c r="W63" s="29"/>
+      <c r="X63" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="37" t="e">
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="38"/>
+      <c r="AA63" s="18"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3878,33 +3912,33 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="28" t="str">
+      <c r="V64" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28" t="str">
+      <c r="W64" s="29"/>
+      <c r="X64" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="37" t="e">
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="38"/>
+      <c r="AA64" s="18"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3918,33 +3952,33 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="28" t="str">
+      <c r="V65" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28" t="str">
+      <c r="W65" s="29"/>
+      <c r="X65" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="37" t="e">
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="38"/>
+      <c r="AA65" s="18"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3958,30 +3992,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="18" t="str">
+      <c r="V66" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="35" t="e">
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="19" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="36"/>
+      <c r="AA66" s="20"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3995,113 +4029,113 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="28" t="str">
+      <c r="V67" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28" t="str">
+      <c r="W67" s="29"/>
+      <c r="X67" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="37" t="e">
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="38"/>
+      <c r="AA67" s="18"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="28" t="str">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28" t="str">
+      <c r="W68" s="48"/>
+      <c r="X68" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="37" t="e">
+      <c r="Y68" s="48"/>
+      <c r="Z68" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="38"/>
+      <c r="AA68" s="50"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="28" t="str">
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28" t="str">
+      <c r="W69" s="48"/>
+      <c r="X69" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="37" t="e">
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="38"/>
+      <c r="AA69" s="50"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4115,73 +4149,73 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="28" t="str">
+      <c r="V70" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28" t="str">
+      <c r="W70" s="29"/>
+      <c r="X70" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="37" t="e">
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="38"/>
+      <c r="AA70" s="18"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="28" t="str">
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28" t="str">
+      <c r="W71" s="48"/>
+      <c r="X71" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="37" t="e">
+      <c r="Y71" s="48"/>
+      <c r="Z71" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="38"/>
+      <c r="AA71" s="50"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -4195,33 +4229,33 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="28" t="str">
+      <c r="V72" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28" t="str">
+      <c r="W72" s="29"/>
+      <c r="X72" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="37" t="e">
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="38"/>
+      <c r="AA72" s="18"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4235,33 +4269,33 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="28" t="str">
+      <c r="V73" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28" t="str">
+      <c r="W73" s="29"/>
+      <c r="X73" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="37" t="e">
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="38"/>
+      <c r="AA73" s="18"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4275,153 +4309,153 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="28" t="str">
+      <c r="V74" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28" t="str">
+      <c r="W74" s="29"/>
+      <c r="X74" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="37" t="e">
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="38"/>
+      <c r="AA74" s="18"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="28" t="str">
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28" t="str">
+      <c r="W75" s="48"/>
+      <c r="X75" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="37" t="e">
+      <c r="Y75" s="48"/>
+      <c r="Z75" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="38"/>
+      <c r="AA75" s="50"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="28" t="str">
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28" t="str">
+      <c r="W76" s="48"/>
+      <c r="X76" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="37" t="e">
+      <c r="Y76" s="48"/>
+      <c r="Z76" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="38"/>
+      <c r="AA76" s="50"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="28" t="str">
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28" t="str">
+      <c r="W77" s="48"/>
+      <c r="X77" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="37" t="e">
+      <c r="Y77" s="48"/>
+      <c r="Z77" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="38"/>
+      <c r="AA77" s="50"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4435,33 +4469,33 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="28" t="str">
+      <c r="V78" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28" t="str">
+      <c r="W78" s="29"/>
+      <c r="X78" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="37" t="e">
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="38"/>
+      <c r="AA78" s="18"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4475,33 +4509,33 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="28" t="str">
+      <c r="V79" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28" t="str">
+      <c r="W79" s="29"/>
+      <c r="X79" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="37" t="e">
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="38"/>
+      <c r="AA79" s="18"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4515,33 +4549,33 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="28" t="str">
+      <c r="V80" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28" t="str">
+      <c r="W80" s="29"/>
+      <c r="X80" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="37" t="e">
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="38"/>
+      <c r="AA80" s="18"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4555,33 +4589,33 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="28" t="str">
+      <c r="V81" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28" t="str">
+      <c r="W81" s="29"/>
+      <c r="X81" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="37" t="e">
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="38"/>
+      <c r="AA81" s="18"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4595,73 +4629,73 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="28" t="str">
+      <c r="V82" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28" t="str">
+      <c r="W82" s="29"/>
+      <c r="X82" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="37" t="e">
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="38"/>
+      <c r="AA82" s="18"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="28" t="str">
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28" t="str">
+      <c r="W83" s="48"/>
+      <c r="X83" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="37" t="e">
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="38"/>
+      <c r="AA83" s="50"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4675,193 +4709,193 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="28" t="str">
+      <c r="V84" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28" t="str">
+      <c r="W84" s="29"/>
+      <c r="X84" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="37" t="e">
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="38"/>
+      <c r="AA84" s="18"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="28" t="str">
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28" t="str">
+      <c r="W85" s="48"/>
+      <c r="X85" s="48" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="37" t="e">
+      <c r="Y85" s="48"/>
+      <c r="Z85" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="38"/>
+      <c r="AA85" s="50"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="28" t="str">
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="48" t="str">
         <f t="shared" ref="V86:V98" si="14">IF(OR(X86 = "SI",OR(R86 &gt;= 6, S86 &gt;= 6, T86 &gt;= 6, U86 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28" t="str">
+      <c r="W86" s="48"/>
+      <c r="X86" s="48" t="str">
         <f t="shared" ref="X86:X98" si="15">IF(AND(COUNTIF(L86:Q86, "&gt;0") &lt;= 1,  OR(I86&gt;=8,L86&gt;=8), OR(J86&gt;=8,N86&gt;=8,J86=0), OR(K86&gt;=8, P86&gt;=8, K86=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="37" t="e">
+      <c r="Y86" s="48"/>
+      <c r="Z86" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="38"/>
+      <c r="AA86" s="50"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="28" t="str">
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="48" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28" t="str">
+      <c r="W87" s="48"/>
+      <c r="X87" s="48" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="37" t="e">
+      <c r="Y87" s="48"/>
+      <c r="Z87" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="38"/>
+      <c r="AA87" s="50"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="28" t="str">
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="48" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28" t="str">
+      <c r="W88" s="48"/>
+      <c r="X88" s="48" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="37" t="e">
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="38"/>
+      <c r="AA88" s="50"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4875,33 +4909,33 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="28" t="str">
+      <c r="V89" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28" t="str">
+      <c r="W89" s="29"/>
+      <c r="X89" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="37" t="e">
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="38"/>
+      <c r="AA89" s="18"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4915,33 +4949,33 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="28" t="str">
+      <c r="V90" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28" t="str">
+      <c r="W90" s="29"/>
+      <c r="X90" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="37" t="e">
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="38"/>
+      <c r="AA90" s="18"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4955,33 +4989,33 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="28" t="str">
+      <c r="V91" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28" t="str">
+      <c r="W91" s="29"/>
+      <c r="X91" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="37" t="e">
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="38"/>
+      <c r="AA91" s="18"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4995,73 +5029,73 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="28" t="str">
+      <c r="V92" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28" t="str">
+      <c r="W92" s="29"/>
+      <c r="X92" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="37" t="e">
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="38"/>
+      <c r="AA92" s="18"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="28" t="str">
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="48" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28" t="str">
+      <c r="W93" s="48"/>
+      <c r="X93" s="48" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="37" t="e">
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="38"/>
+      <c r="AA93" s="50"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5075,33 +5109,33 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="28" t="str">
+      <c r="V94" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28" t="str">
+      <c r="W94" s="29"/>
+      <c r="X94" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="37" t="e">
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="38"/>
+      <c r="AA94" s="18"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -5115,73 +5149,73 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="28" t="str">
+      <c r="V95" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28" t="str">
+      <c r="W95" s="29"/>
+      <c r="X95" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="37" t="e">
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="38"/>
+      <c r="AA95" s="18"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="28" t="str">
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="47"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="48" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28" t="str">
+      <c r="W96" s="48"/>
+      <c r="X96" s="48" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="37" t="e">
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="38"/>
+      <c r="AA96" s="50"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -5195,33 +5229,33 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="28" t="str">
+      <c r="V97" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28" t="str">
+      <c r="W97" s="29"/>
+      <c r="X97" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="37" t="e">
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="38"/>
+      <c r="AA97" s="18"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5235,42 +5269,42 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="28" t="str">
+      <c r="V98" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28" t="str">
+      <c r="W98" s="29"/>
+      <c r="X98" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="37" t="e">
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="38"/>
+      <c r="AA98" s="18"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="32" t="s">
+      <c r="K101" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
       <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
         <v>16</v>
@@ -5283,61 +5317,61 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="32" t="s">
+      <c r="K102" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
       <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="32" t="s">
+      <c r="V102" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="32"/>
-      <c r="X102" s="32"/>
-      <c r="Y102" s="32"/>
-      <c r="Z102" s="32"/>
-      <c r="AA102" s="15">
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+      <c r="AA102" s="14">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="32" t="s">
+      <c r="K103" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
       <c r="Q103" s="5">
         <f>Q101+Q102</f>
         <v>68</v>
@@ -5351,6 +5385,465 @@
     </row>
   </sheetData>
   <mergeCells count="483">
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
     <mergeCell ref="Z88:AA88"/>
     <mergeCell ref="Z87:AA87"/>
     <mergeCell ref="Z86:AA86"/>
@@ -5375,465 +5868,6 @@
     <mergeCell ref="Z79:AA79"/>
     <mergeCell ref="Z78:AA78"/>
     <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="X5:Y33 X37:Y37 X39:Y40 X42:Y43 X46:Y98">

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef63814a693328aa/Documentos/UTN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F071B601-1117-41B9-B0F4-EC8551305542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B376EC-AB5F-4E2A-A273-BA11B44DB97A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E31D3D-9659-4FFF-9F30-96D010B2A397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,53 +600,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,17 +624,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,11 +639,50 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,79 +1048,79 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1161,26 +1163,26 @@
       <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1198,35 +1200,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="20" t="str">
+      <c r="V5" s="40" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20" t="str">
+      <c r="W5" s="40"/>
+      <c r="X5" s="40" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="33">
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="21">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="34"/>
+      <c r="AA5" s="22"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1244,35 +1246,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="20" t="str">
+      <c r="V6" s="40" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20" t="str">
+      <c r="W6" s="40"/>
+      <c r="X6" s="40" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="33">
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="21">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="34"/>
+      <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1290,35 +1292,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="20" t="str">
+      <c r="V7" s="40" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20" t="str">
+      <c r="W7" s="40"/>
+      <c r="X7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="33">
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="34"/>
+      <c r="AA7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1340,35 +1342,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="20" t="str">
+      <c r="V8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20" t="str">
+      <c r="W8" s="40"/>
+      <c r="X8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="33">
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="21">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="34"/>
+      <c r="AA8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1386,35 +1388,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="20" t="str">
+      <c r="V9" s="40" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20" t="str">
+      <c r="W9" s="40"/>
+      <c r="X9" s="40" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="33">
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="34"/>
+      <c r="AA9" s="22"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1438,35 +1440,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="20" t="str">
+      <c r="V10" s="40" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20" t="str">
+      <c r="W10" s="40"/>
+      <c r="X10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="33">
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="34"/>
+      <c r="AA10" s="22"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1486,34 +1488,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="20" t="str">
+      <c r="V11" s="40" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20" t="str">
+      <c r="W11" s="40"/>
+      <c r="X11" s="40" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="33">
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="21">
         <v>9</v>
       </c>
-      <c r="AA11" s="34"/>
+      <c r="AA11" s="22"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1529,30 +1531,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="20" t="str">
+      <c r="V12" s="40" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20" t="str">
+      <c r="W12" s="40"/>
+      <c r="X12" s="40" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="33">
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="34"/>
+      <c r="AA12" s="22"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1569,32 +1571,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="18" t="str">
+      <c r="V13" s="29" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="35" t="e">
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="18" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="36"/>
+      <c r="AA13" s="19"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1614,130 +1616,130 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="20" t="str">
+      <c r="V14" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20" t="str">
+      <c r="W14" s="40"/>
+      <c r="X14" s="40" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="33">
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="21">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="34"/>
+      <c r="AA14" s="22"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="10">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="9">
         <v>6</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>8</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
         <v>8</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="20" t="str">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20" t="str">
+      <c r="W15" s="40"/>
+      <c r="X15" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="33">
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA15" s="34"/>
+      <c r="AA15" s="22"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="10">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>10</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <v>10</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="20" t="str">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20" t="str">
+      <c r="W16" s="40"/>
+      <c r="X16" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="33">
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="21">
         <v>10</v>
       </c>
-      <c r="AA16" s="34"/>
+      <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1755,35 +1757,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="20" t="str">
+      <c r="V17" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20" t="str">
+      <c r="W17" s="40"/>
+      <c r="X17" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="33">
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="21">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="34"/>
+      <c r="AA17" s="22"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1803,81 +1805,81 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="20" t="str">
+      <c r="V18" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20" t="str">
+      <c r="W18" s="40"/>
+      <c r="X18" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="33">
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="21">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="34"/>
+      <c r="AA18" s="22"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="10">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="9">
         <v>8</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>8</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="20" t="str">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20" t="str">
+      <c r="W19" s="40"/>
+      <c r="X19" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="33">
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="34"/>
+      <c r="AA19" s="22"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1895,35 +1897,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="20" t="str">
+      <c r="V20" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20" t="str">
+      <c r="W20" s="40"/>
+      <c r="X20" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="33">
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="21">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="34"/>
+      <c r="AA20" s="22"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1939,30 +1941,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="20" t="str">
+      <c r="V21" s="40" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20" t="str">
+      <c r="W21" s="40"/>
+      <c r="X21" s="40" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="33">
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="34"/>
+      <c r="AA21" s="22"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1979,135 +1981,141 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="18" t="str">
+      <c r="V22" s="29" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="35" t="e">
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="18" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="36"/>
+      <c r="AA22" s="19"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="13">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="12">
         <v>8</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>2</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12">
         <v>2</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="12">
         <v>6</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="27" t="str">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="39" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27" t="str">
+      <c r="W23" s="39"/>
+      <c r="X23" s="39" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="39" t="e">
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="26" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="40"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="28" t="str">
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
+        <v>3</v>
+      </c>
+      <c r="M24" s="15">
+        <v>6</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="39" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28" t="str">
+      <c r="W24" s="39"/>
+      <c r="X24" s="39" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="37" t="e">
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="26" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="38"/>
+      <c r="AA24" s="27"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
       <c r="V25" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
@@ -2118,86 +2126,86 @@
         <v>NO</v>
       </c>
       <c r="Y25" s="28"/>
-      <c r="Z25" s="37" t="e">
+      <c r="Z25" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="38"/>
+      <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14">
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="13">
         <v>7</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>10</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>10</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13">
         <v>7</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="20" t="str">
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="40" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20" t="str">
+      <c r="W26" s="40"/>
+      <c r="X26" s="40" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="33">
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="21">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AA26" s="34"/>
+      <c r="AA26" s="22"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
       <c r="V27" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
@@ -2208,80 +2216,80 @@
         <v>NO</v>
       </c>
       <c r="Y27" s="28"/>
-      <c r="Z27" s="37" t="e">
+      <c r="Z27" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="38"/>
+      <c r="AA27" s="17"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="14">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="13">
         <v>8</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="20" t="str">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="40" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20" t="str">
+      <c r="W28" s="40"/>
+      <c r="X28" s="40" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="33">
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="21">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AA28" s="34"/>
+      <c r="AA28" s="22"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
       <c r="V29" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
@@ -2292,40 +2300,38 @@
         <v>NO</v>
       </c>
       <c r="Y29" s="28"/>
-      <c r="Z29" s="37" t="e">
+      <c r="Z29" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="38"/>
+      <c r="AA29" s="17"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="12">
-        <v>4</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="28" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
@@ -2336,20 +2342,20 @@
         <v>NO</v>
       </c>
       <c r="Y30" s="28"/>
-      <c r="Z30" s="37" t="e">
+      <c r="Z30" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="38"/>
+      <c r="AA30" s="17"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2366,30 +2372,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="18" t="str">
+      <c r="V31" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="35" t="e">
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="18" t="e">
         <f t="shared" ref="Z31:Z43" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="36"/>
+      <c r="AA31" s="19"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2413,283 +2419,283 @@
         <v>NO</v>
       </c>
       <c r="Y32" s="28"/>
-      <c r="Z32" s="37" t="e">
+      <c r="Z32" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="38"/>
+      <c r="AA32" s="17"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA33" s="42"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA33" s="24"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA34" s="42"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V34" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="24"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="42"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V35" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V36" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA36" s="42"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V36" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" s="24"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2713,88 +2719,88 @@
         <v>NO</v>
       </c>
       <c r="Y37" s="28"/>
-      <c r="Z37" s="37" t="e">
+      <c r="Z37" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="38"/>
+      <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA38" s="42"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V38" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA38" s="24"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2818,23 +2824,23 @@
         <v>NO</v>
       </c>
       <c r="Y39" s="28"/>
-      <c r="Z39" s="37" t="e">
+      <c r="Z39" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="38"/>
+      <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2858,88 +2864,88 @@
         <v>NO</v>
       </c>
       <c r="Y40" s="28"/>
-      <c r="Z40" s="37" t="e">
+      <c r="Z40" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="38"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA41" s="42"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V41" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA41" s="24"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2963,23 +2969,23 @@
         <v>NO</v>
       </c>
       <c r="Y42" s="28"/>
-      <c r="Z42" s="37" t="e">
+      <c r="Z42" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="38"/>
+      <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3003,150 +3009,150 @@
         <v>NO</v>
       </c>
       <c r="Y43" s="28"/>
-      <c r="Z43" s="37" t="e">
+      <c r="Z43" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="38"/>
+      <c r="AA43" s="17"/>
     </row>
     <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V44" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA44" s="42"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V44" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA44" s="24"/>
     </row>
     <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="V45" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA45" s="42"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA45" s="24"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3163,30 +3169,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="18" t="str">
+      <c r="V46" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="35" t="e">
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="18" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="36"/>
+      <c r="AA46" s="19"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3210,23 +3216,23 @@
         <v>NO</v>
       </c>
       <c r="Y47" s="28"/>
-      <c r="Z47" s="37" t="e">
+      <c r="Z47" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="38"/>
+      <c r="AA47" s="17"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3250,67 +3256,69 @@
         <v>NO</v>
       </c>
       <c r="Y48" s="28"/>
-      <c r="Z48" s="37" t="e">
+      <c r="Z48" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="38"/>
+      <c r="AA48" s="17"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="9">
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="15">
         <v>7</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="28" t="str">
+      <c r="J49" s="15">
+        <v>7</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="39" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28" t="str">
+      <c r="W49" s="39"/>
+      <c r="X49" s="39" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="37" t="e">
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="26" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="38"/>
+      <c r="AA49" s="27"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3334,23 +3342,23 @@
         <v>NO</v>
       </c>
       <c r="Y50" s="28"/>
-      <c r="Z50" s="37" t="e">
+      <c r="Z50" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="38"/>
+      <c r="AA50" s="17"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3374,23 +3382,23 @@
         <v>NO</v>
       </c>
       <c r="Y51" s="28"/>
-      <c r="Z51" s="37" t="e">
+      <c r="Z51" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="38"/>
+      <c r="AA51" s="17"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3414,23 +3422,23 @@
         <v>NO</v>
       </c>
       <c r="Y52" s="28"/>
-      <c r="Z52" s="37" t="e">
+      <c r="Z52" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="38"/>
+      <c r="AA52" s="17"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3454,20 +3462,20 @@
         <v>NO</v>
       </c>
       <c r="Y53" s="28"/>
-      <c r="Z53" s="37" t="e">
+      <c r="Z53" s="16" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="38"/>
+      <c r="AA53" s="17"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3484,30 +3492,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="18" t="str">
+      <c r="V54" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="35" t="e">
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="18" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="36"/>
+      <c r="AA54" s="19"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3531,23 +3539,23 @@
         <v>NO</v>
       </c>
       <c r="Y55" s="28"/>
-      <c r="Z55" s="37" t="e">
+      <c r="Z55" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="38"/>
+      <c r="AA55" s="17"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3571,23 +3579,23 @@
         <v>NO</v>
       </c>
       <c r="Y56" s="28"/>
-      <c r="Z56" s="37" t="e">
+      <c r="Z56" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="38"/>
+      <c r="AA56" s="17"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3611,23 +3619,23 @@
         <v>NO</v>
       </c>
       <c r="Y57" s="28"/>
-      <c r="Z57" s="37" t="e">
+      <c r="Z57" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="38"/>
+      <c r="AA57" s="17"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3651,23 +3659,23 @@
         <v>NO</v>
       </c>
       <c r="Y58" s="28"/>
-      <c r="Z58" s="37" t="e">
+      <c r="Z58" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="38"/>
+      <c r="AA58" s="17"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3691,23 +3699,23 @@
         <v>NO</v>
       </c>
       <c r="Y59" s="28"/>
-      <c r="Z59" s="37" t="e">
+      <c r="Z59" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="38"/>
+      <c r="AA59" s="17"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3731,20 +3739,20 @@
         <v>NO</v>
       </c>
       <c r="Y60" s="28"/>
-      <c r="Z60" s="37" t="e">
+      <c r="Z60" s="16" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="38"/>
+      <c r="AA60" s="17"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3761,30 +3769,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="18" t="str">
+      <c r="V61" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="35" t="e">
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="18" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="36"/>
+      <c r="AA61" s="19"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3808,23 +3816,23 @@
         <v>NO</v>
       </c>
       <c r="Y62" s="28"/>
-      <c r="Z62" s="37" t="e">
+      <c r="Z62" s="16" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="38"/>
+      <c r="AA62" s="17"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3848,23 +3856,23 @@
         <v>NO</v>
       </c>
       <c r="Y63" s="28"/>
-      <c r="Z63" s="37" t="e">
+      <c r="Z63" s="16" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="38"/>
+      <c r="AA63" s="17"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3888,23 +3896,23 @@
         <v>NO</v>
       </c>
       <c r="Y64" s="28"/>
-      <c r="Z64" s="37" t="e">
+      <c r="Z64" s="16" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="38"/>
+      <c r="AA64" s="17"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3928,23 +3936,23 @@
         <v>NO</v>
       </c>
       <c r="Y65" s="28"/>
-      <c r="Z65" s="37" t="e">
+      <c r="Z65" s="16" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="38"/>
+      <c r="AA65" s="17"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3958,30 +3966,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="18" t="str">
+      <c r="V66" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="35" t="e">
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="18" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="36"/>
+      <c r="AA66" s="19"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -4005,23 +4013,23 @@
         <v>NO</v>
       </c>
       <c r="Y67" s="28"/>
-      <c r="Z67" s="37" t="e">
+      <c r="Z67" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="38"/>
+      <c r="AA67" s="17"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -4045,23 +4053,23 @@
         <v>NO</v>
       </c>
       <c r="Y68" s="28"/>
-      <c r="Z68" s="37" t="e">
+      <c r="Z68" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="38"/>
+      <c r="AA68" s="17"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -4085,23 +4093,23 @@
         <v>NO</v>
       </c>
       <c r="Y69" s="28"/>
-      <c r="Z69" s="37" t="e">
+      <c r="Z69" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="38"/>
+      <c r="AA69" s="17"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4125,23 +4133,23 @@
         <v>NO</v>
       </c>
       <c r="Y70" s="28"/>
-      <c r="Z70" s="37" t="e">
+      <c r="Z70" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="38"/>
+      <c r="AA70" s="17"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -4165,23 +4173,23 @@
         <v>NO</v>
       </c>
       <c r="Y71" s="28"/>
-      <c r="Z71" s="37" t="e">
+      <c r="Z71" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="38"/>
+      <c r="AA71" s="17"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -4205,23 +4213,23 @@
         <v>NO</v>
       </c>
       <c r="Y72" s="28"/>
-      <c r="Z72" s="37" t="e">
+      <c r="Z72" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="38"/>
+      <c r="AA72" s="17"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4245,23 +4253,23 @@
         <v>NO</v>
       </c>
       <c r="Y73" s="28"/>
-      <c r="Z73" s="37" t="e">
+      <c r="Z73" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="38"/>
+      <c r="AA73" s="17"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4285,23 +4293,23 @@
         <v>NO</v>
       </c>
       <c r="Y74" s="28"/>
-      <c r="Z74" s="37" t="e">
+      <c r="Z74" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="38"/>
+      <c r="AA74" s="17"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -4325,23 +4333,23 @@
         <v>NO</v>
       </c>
       <c r="Y75" s="28"/>
-      <c r="Z75" s="37" t="e">
+      <c r="Z75" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="38"/>
+      <c r="AA75" s="17"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -4365,23 +4373,23 @@
         <v>NO</v>
       </c>
       <c r="Y76" s="28"/>
-      <c r="Z76" s="37" t="e">
+      <c r="Z76" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="38"/>
+      <c r="AA76" s="17"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4405,23 +4413,23 @@
         <v>NO</v>
       </c>
       <c r="Y77" s="28"/>
-      <c r="Z77" s="37" t="e">
+      <c r="Z77" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="38"/>
+      <c r="AA77" s="17"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4445,23 +4453,23 @@
         <v>NO</v>
       </c>
       <c r="Y78" s="28"/>
-      <c r="Z78" s="37" t="e">
+      <c r="Z78" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="38"/>
+      <c r="AA78" s="17"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4485,23 +4493,23 @@
         <v>NO</v>
       </c>
       <c r="Y79" s="28"/>
-      <c r="Z79" s="37" t="e">
+      <c r="Z79" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="38"/>
+      <c r="AA79" s="17"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4525,23 +4533,23 @@
         <v>NO</v>
       </c>
       <c r="Y80" s="28"/>
-      <c r="Z80" s="37" t="e">
+      <c r="Z80" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="38"/>
+      <c r="AA80" s="17"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4565,23 +4573,23 @@
         <v>NO</v>
       </c>
       <c r="Y81" s="28"/>
-      <c r="Z81" s="37" t="e">
+      <c r="Z81" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="38"/>
+      <c r="AA81" s="17"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4605,23 +4613,23 @@
         <v>NO</v>
       </c>
       <c r="Y82" s="28"/>
-      <c r="Z82" s="37" t="e">
+      <c r="Z82" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="38"/>
+      <c r="AA82" s="17"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4645,23 +4653,23 @@
         <v>NO</v>
       </c>
       <c r="Y83" s="28"/>
-      <c r="Z83" s="37" t="e">
+      <c r="Z83" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="38"/>
+      <c r="AA83" s="17"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4685,23 +4693,23 @@
         <v>NO</v>
       </c>
       <c r="Y84" s="28"/>
-      <c r="Z84" s="37" t="e">
+      <c r="Z84" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="38"/>
+      <c r="AA84" s="17"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4725,23 +4733,23 @@
         <v>NO</v>
       </c>
       <c r="Y85" s="28"/>
-      <c r="Z85" s="37" t="e">
+      <c r="Z85" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="38"/>
+      <c r="AA85" s="17"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4765,23 +4773,23 @@
         <v>NO</v>
       </c>
       <c r="Y86" s="28"/>
-      <c r="Z86" s="37" t="e">
+      <c r="Z86" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="38"/>
+      <c r="AA86" s="17"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4805,23 +4813,23 @@
         <v>NO</v>
       </c>
       <c r="Y87" s="28"/>
-      <c r="Z87" s="37" t="e">
+      <c r="Z87" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="38"/>
+      <c r="AA87" s="17"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4845,23 +4853,23 @@
         <v>NO</v>
       </c>
       <c r="Y88" s="28"/>
-      <c r="Z88" s="37" t="e">
+      <c r="Z88" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="38"/>
+      <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4885,23 +4893,23 @@
         <v>NO</v>
       </c>
       <c r="Y89" s="28"/>
-      <c r="Z89" s="37" t="e">
+      <c r="Z89" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="38"/>
+      <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4925,23 +4933,23 @@
         <v>NO</v>
       </c>
       <c r="Y90" s="28"/>
-      <c r="Z90" s="37" t="e">
+      <c r="Z90" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="38"/>
+      <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4965,23 +4973,23 @@
         <v>NO</v>
       </c>
       <c r="Y91" s="28"/>
-      <c r="Z91" s="37" t="e">
+      <c r="Z91" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="38"/>
+      <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -5005,23 +5013,23 @@
         <v>NO</v>
       </c>
       <c r="Y92" s="28"/>
-      <c r="Z92" s="37" t="e">
+      <c r="Z92" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="38"/>
+      <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5045,23 +5053,23 @@
         <v>NO</v>
       </c>
       <c r="Y93" s="28"/>
-      <c r="Z93" s="37" t="e">
+      <c r="Z93" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="38"/>
+      <c r="AA93" s="17"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5085,23 +5093,23 @@
         <v>NO</v>
       </c>
       <c r="Y94" s="28"/>
-      <c r="Z94" s="37" t="e">
+      <c r="Z94" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="38"/>
+      <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -5125,23 +5133,23 @@
         <v>NO</v>
       </c>
       <c r="Y95" s="28"/>
-      <c r="Z95" s="37" t="e">
+      <c r="Z95" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="38"/>
+      <c r="AA95" s="17"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -5165,23 +5173,23 @@
         <v>NO</v>
       </c>
       <c r="Y96" s="28"/>
-      <c r="Z96" s="37" t="e">
+      <c r="Z96" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="38"/>
+      <c r="AA96" s="17"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -5205,23 +5213,23 @@
         <v>NO</v>
       </c>
       <c r="Y97" s="28"/>
-      <c r="Z97" s="37" t="e">
+      <c r="Z97" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="38"/>
+      <c r="AA97" s="17"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5245,32 +5253,32 @@
         <v>NO</v>
       </c>
       <c r="Y98" s="28"/>
-      <c r="Z98" s="37" t="e">
+      <c r="Z98" s="16" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="38"/>
+      <c r="AA98" s="17"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="32" t="s">
+      <c r="K101" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
       <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
         <v>16</v>
@@ -5283,61 +5291,61 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="32" t="s">
+      <c r="K102" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
       <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="32" t="s">
+      <c r="V102" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="32"/>
-      <c r="X102" s="32"/>
-      <c r="Y102" s="32"/>
-      <c r="Z102" s="32"/>
-      <c r="AA102" s="15">
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="14">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="32" t="s">
+      <c r="K103" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
       <c r="Q103" s="5">
         <f>Q101+Q102</f>
         <v>68</v>
@@ -5351,6 +5359,465 @@
     </row>
   </sheetData>
   <mergeCells count="483">
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
     <mergeCell ref="Z88:AA88"/>
     <mergeCell ref="Z87:AA87"/>
     <mergeCell ref="Z86:AA86"/>
@@ -5375,465 +5842,6 @@
     <mergeCell ref="Z79:AA79"/>
     <mergeCell ref="Z78:AA78"/>
     <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="X5:Y33 X37:Y37 X39:Y40 X42:Y43 X46:Y98">

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BD1527-0388-4ACD-8A23-2180F2922D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E3E391-2837-43FD-82AA-7866DECFA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,53 +603,20 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,10 +627,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,17 +639,53 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,79 +1051,79 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17" t="s">
+      <c r="W3" s="28"/>
+      <c r="X3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="28"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1163,26 +1166,26 @@
       <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1200,35 +1203,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="20" t="str">
+      <c r="V5" s="41" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20" t="str">
+      <c r="W5" s="41"/>
+      <c r="X5" s="41" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="33">
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="22">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="34"/>
+      <c r="AA5" s="23"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1246,35 +1249,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="20" t="str">
+      <c r="V6" s="41" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20" t="str">
+      <c r="W6" s="41"/>
+      <c r="X6" s="41" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="33">
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="22">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="34"/>
+      <c r="AA6" s="23"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1292,35 +1295,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="20" t="str">
+      <c r="V7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20" t="str">
+      <c r="W7" s="41"/>
+      <c r="X7" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="33">
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="34"/>
+      <c r="AA7" s="23"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1342,35 +1345,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="20" t="str">
+      <c r="V8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20" t="str">
+      <c r="W8" s="41"/>
+      <c r="X8" s="41" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="33">
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="22">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="34"/>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1388,35 +1391,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="20" t="str">
+      <c r="V9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20" t="str">
+      <c r="W9" s="41"/>
+      <c r="X9" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="33">
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="34"/>
+      <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1440,35 +1443,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="20" t="str">
+      <c r="V10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20" t="str">
+      <c r="W10" s="41"/>
+      <c r="X10" s="41" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="33">
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="34"/>
+      <c r="AA10" s="23"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1488,34 +1491,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="20" t="str">
+      <c r="V11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20" t="str">
+      <c r="W11" s="41"/>
+      <c r="X11" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="33">
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="22">
         <v>9</v>
       </c>
-      <c r="AA11" s="34"/>
+      <c r="AA11" s="23"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1531,30 +1534,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="20" t="str">
+      <c r="V12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20" t="str">
+      <c r="W12" s="41"/>
+      <c r="X12" s="41" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="33">
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="22">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="34"/>
+      <c r="AA12" s="23"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1571,32 +1574,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="18" t="str">
+      <c r="V13" s="30" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="35" t="e">
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="19" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="36"/>
+      <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1616,35 +1619,35 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="20" t="str">
+      <c r="V14" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20" t="str">
+      <c r="W14" s="41"/>
+      <c r="X14" s="41" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="33">
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="22">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="34"/>
+      <c r="AA14" s="23"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="9">
         <v>6</v>
       </c>
@@ -1664,35 +1667,35 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="20" t="str">
+      <c r="V15" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20" t="str">
+      <c r="W15" s="41"/>
+      <c r="X15" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="33">
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA15" s="34"/>
+      <c r="AA15" s="23"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="9">
         <v>6</v>
       </c>
@@ -1712,34 +1715,34 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="20" t="str">
+      <c r="V16" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20" t="str">
+      <c r="W16" s="41"/>
+      <c r="X16" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="33">
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="22">
         <v>10</v>
       </c>
-      <c r="AA16" s="34"/>
+      <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1757,35 +1760,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="20" t="str">
+      <c r="V17" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20" t="str">
+      <c r="W17" s="41"/>
+      <c r="X17" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="33">
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="22">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="34"/>
+      <c r="AA17" s="23"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1805,35 +1808,35 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="20" t="str">
+      <c r="V18" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20" t="str">
+      <c r="W18" s="41"/>
+      <c r="X18" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="33">
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="22">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="34"/>
+      <c r="AA18" s="23"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="9">
         <v>8</v>
       </c>
@@ -1851,35 +1854,35 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="20" t="str">
+      <c r="V19" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20" t="str">
+      <c r="W19" s="41"/>
+      <c r="X19" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="33">
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="34"/>
+      <c r="AA19" s="23"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1897,35 +1900,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="20" t="str">
+      <c r="V20" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20" t="str">
+      <c r="W20" s="41"/>
+      <c r="X20" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="33">
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="22">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="34"/>
+      <c r="AA20" s="23"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1941,30 +1944,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="20" t="str">
+      <c r="V21" s="41" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20" t="str">
+      <c r="W21" s="41"/>
+      <c r="X21" s="41" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="33">
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="22">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="34"/>
+      <c r="AA21" s="23"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1981,32 +1984,32 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="18" t="str">
+      <c r="V22" s="30" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="35" t="e">
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="19" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="36"/>
+      <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="12">
         <v>8</v>
       </c>
@@ -2030,35 +2033,35 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="27" t="str">
+      <c r="V23" s="31" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27" t="str">
+      <c r="W23" s="31"/>
+      <c r="X23" s="31" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="37">
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="26">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AA23" s="38"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="15">
         <v>2</v>
       </c>
@@ -2078,33 +2081,33 @@
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="27" t="str">
+      <c r="V24" s="31" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27" t="str">
+      <c r="W24" s="31"/>
+      <c r="X24" s="31" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="37" t="e">
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="26" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="38"/>
+      <c r="AA24" s="27"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2118,35 +2121,35 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="28" t="str">
+      <c r="V25" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28" t="str">
+      <c r="W25" s="29"/>
+      <c r="X25" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="39" t="e">
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="40"/>
+      <c r="AA25" s="18"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="13">
         <v>7</v>
       </c>
@@ -2168,75 +2171,79 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="20" t="str">
+      <c r="V26" s="41" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20" t="str">
+      <c r="W26" s="41"/>
+      <c r="X26" s="41" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="33">
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="22">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AA26" s="34"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="28" t="str">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="16">
+        <v>8</v>
+      </c>
+      <c r="J27" s="16">
+        <v>8</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="41" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41" t="str">
         <f t="shared" si="8"/>
-        <v>NO</v>
-      </c>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="39" t="e">
+        <v>SI</v>
+      </c>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="22">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="13">
         <v>8</v>
       </c>
@@ -2252,33 +2259,33 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
-      <c r="V28" s="20" t="str">
+      <c r="V28" s="41" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20" t="str">
+      <c r="W28" s="41"/>
+      <c r="X28" s="41" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="33">
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="22">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AA28" s="34"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -2292,35 +2299,35 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="28" t="str">
+      <c r="V29" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28" t="str">
+      <c r="W29" s="29"/>
+      <c r="X29" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="39" t="e">
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="40"/>
+      <c r="AA29" s="18"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -2334,30 +2341,30 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="28" t="str">
+      <c r="V30" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28" t="str">
+      <c r="W30" s="29"/>
+      <c r="X30" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="39" t="e">
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="40"/>
+      <c r="AA30" s="18"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2374,30 +2381,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="18" t="str">
+      <c r="V31" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="35" t="e">
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="19" t="e">
         <f t="shared" ref="Z31:Z43" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="36"/>
+      <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2411,35 +2418,35 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="28" t="str">
+      <c r="V32" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28" t="str">
+      <c r="W32" s="29"/>
+      <c r="X32" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="39" t="e">
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="40"/>
+      <c r="AA32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="10" t="s">
         <v>121</v>
       </c>
@@ -2479,32 +2486,32 @@
       <c r="U33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA33" s="42"/>
+      <c r="V33" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA33" s="25"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="10" t="s">
         <v>121</v>
       </c>
@@ -2544,32 +2551,32 @@
       <c r="U34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA34" s="42"/>
+      <c r="V34" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="25"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="10" t="s">
         <v>121</v>
       </c>
@@ -2609,32 +2616,32 @@
       <c r="U35" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="42"/>
+      <c r="V35" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="25"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="10" t="s">
         <v>121</v>
       </c>
@@ -2674,30 +2681,30 @@
       <c r="U36" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA36" s="42"/>
+      <c r="V36" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" s="25"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2711,35 +2718,35 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="28" t="str">
+      <c r="V37" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28" t="str">
+      <c r="W37" s="29"/>
+      <c r="X37" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="39" t="e">
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="40"/>
+      <c r="AA37" s="18"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="10" t="s">
         <v>121</v>
       </c>
@@ -2779,30 +2786,30 @@
       <c r="U38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA38" s="42"/>
+      <c r="V38" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA38" s="25"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2816,33 +2823,33 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="28" t="str">
+      <c r="V39" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28" t="str">
+      <c r="W39" s="29"/>
+      <c r="X39" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="39" t="e">
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="40"/>
+      <c r="AA39" s="18"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2856,35 +2863,35 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="28" t="str">
+      <c r="V40" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28" t="str">
+      <c r="W40" s="29"/>
+      <c r="X40" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="39" t="e">
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="40"/>
+      <c r="AA40" s="18"/>
     </row>
     <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="10" t="s">
         <v>121</v>
       </c>
@@ -2924,30 +2931,30 @@
       <c r="U41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA41" s="42"/>
+      <c r="V41" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA41" s="25"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2961,33 +2968,33 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="28" t="str">
+      <c r="V42" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28" t="str">
+      <c r="W42" s="29"/>
+      <c r="X42" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="39" t="e">
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="40"/>
+      <c r="AA42" s="18"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3001,35 +3008,35 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="28" t="str">
+      <c r="V43" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28" t="str">
+      <c r="W43" s="29"/>
+      <c r="X43" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="39" t="e">
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="40"/>
+      <c r="AA43" s="18"/>
     </row>
     <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="10" t="s">
         <v>121</v>
       </c>
@@ -3069,32 +3076,32 @@
       <c r="U44" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V44" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA44" s="42"/>
+      <c r="V44" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA44" s="25"/>
     </row>
     <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="10" t="s">
         <v>121</v>
       </c>
@@ -3134,27 +3141,27 @@
       <c r="U45" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V45" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA45" s="42"/>
+      <c r="V45" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA45" s="25"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3171,30 +3178,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="18" t="str">
+      <c r="V46" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="35" t="e">
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="19" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="36"/>
+      <c r="AA46" s="20"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3208,33 +3215,33 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="28" t="str">
+      <c r="V47" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28" t="str">
+      <c r="W47" s="29"/>
+      <c r="X47" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="39" t="e">
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="40"/>
+      <c r="AA47" s="18"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3248,35 +3255,35 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="28" t="str">
+      <c r="V48" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28" t="str">
+      <c r="W48" s="29"/>
+      <c r="X48" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="39" t="e">
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="40"/>
+      <c r="AA48" s="18"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="15">
         <v>7</v>
       </c>
@@ -3294,33 +3301,33 @@
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
-      <c r="V49" s="27" t="str">
+      <c r="V49" s="31" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27" t="str">
+      <c r="W49" s="31"/>
+      <c r="X49" s="31" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="37" t="e">
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="26" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="38"/>
+      <c r="AA49" s="27"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3334,33 +3341,33 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="28" t="str">
+      <c r="V50" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28" t="str">
+      <c r="W50" s="29"/>
+      <c r="X50" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="39" t="e">
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="40"/>
+      <c r="AA50" s="18"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3374,33 +3381,33 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="28" t="str">
+      <c r="V51" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28" t="str">
+      <c r="W51" s="29"/>
+      <c r="X51" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="39" t="e">
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="40"/>
+      <c r="AA51" s="18"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3414,33 +3421,33 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="28" t="str">
+      <c r="V52" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28" t="str">
+      <c r="W52" s="29"/>
+      <c r="X52" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="39" t="e">
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="40"/>
+      <c r="AA52" s="18"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3454,30 +3461,30 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="28" t="str">
+      <c r="V53" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28" t="str">
+      <c r="W53" s="29"/>
+      <c r="X53" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="39" t="e">
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="17" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="40"/>
+      <c r="AA53" s="18"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3494,30 +3501,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="18" t="str">
+      <c r="V54" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="35" t="e">
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="19" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="36"/>
+      <c r="AA54" s="20"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3531,33 +3538,33 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="28" t="str">
+      <c r="V55" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28" t="str">
+      <c r="W55" s="29"/>
+      <c r="X55" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="39" t="e">
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="40"/>
+      <c r="AA55" s="18"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3571,33 +3578,33 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="28" t="str">
+      <c r="V56" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28" t="str">
+      <c r="W56" s="29"/>
+      <c r="X56" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="39" t="e">
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="40"/>
+      <c r="AA56" s="18"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3611,33 +3618,33 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="28" t="str">
+      <c r="V57" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28" t="str">
+      <c r="W57" s="29"/>
+      <c r="X57" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="39" t="e">
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="40"/>
+      <c r="AA57" s="18"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3651,33 +3658,33 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="28" t="str">
+      <c r="V58" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28" t="str">
+      <c r="W58" s="29"/>
+      <c r="X58" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="39" t="e">
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="40"/>
+      <c r="AA58" s="18"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3691,33 +3698,33 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="28" t="str">
+      <c r="V59" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28" t="str">
+      <c r="W59" s="29"/>
+      <c r="X59" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="39" t="e">
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="40"/>
+      <c r="AA59" s="18"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3731,30 +3738,30 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="28" t="str">
+      <c r="V60" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28" t="str">
+      <c r="W60" s="29"/>
+      <c r="X60" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="39" t="e">
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="17" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="40"/>
+      <c r="AA60" s="18"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3771,30 +3778,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="18" t="str">
+      <c r="V61" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="35" t="e">
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="19" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="36"/>
+      <c r="AA61" s="20"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3808,33 +3815,33 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="28" t="str">
+      <c r="V62" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28" t="str">
+      <c r="W62" s="29"/>
+      <c r="X62" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="39" t="e">
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="40"/>
+      <c r="AA62" s="18"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3848,33 +3855,33 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="28" t="str">
+      <c r="V63" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28" t="str">
+      <c r="W63" s="29"/>
+      <c r="X63" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="39" t="e">
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="40"/>
+      <c r="AA63" s="18"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3888,33 +3895,33 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="28" t="str">
+      <c r="V64" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28" t="str">
+      <c r="W64" s="29"/>
+      <c r="X64" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="39" t="e">
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="40"/>
+      <c r="AA64" s="18"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3928,33 +3935,33 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="28" t="str">
+      <c r="V65" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28" t="str">
+      <c r="W65" s="29"/>
+      <c r="X65" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="39" t="e">
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="17" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="40"/>
+      <c r="AA65" s="18"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3968,30 +3975,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="18" t="str">
+      <c r="V66" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="35" t="e">
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="19" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="36"/>
+      <c r="AA66" s="20"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -4005,33 +4012,33 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="28" t="str">
+      <c r="V67" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28" t="str">
+      <c r="W67" s="29"/>
+      <c r="X67" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="39" t="e">
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="40"/>
+      <c r="AA67" s="18"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -4045,33 +4052,33 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="28" t="str">
+      <c r="V68" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28" t="str">
+      <c r="W68" s="29"/>
+      <c r="X68" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="39" t="e">
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="40"/>
+      <c r="AA68" s="18"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -4085,33 +4092,33 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="28" t="str">
+      <c r="V69" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28" t="str">
+      <c r="W69" s="29"/>
+      <c r="X69" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="39" t="e">
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="40"/>
+      <c r="AA69" s="18"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4125,33 +4132,33 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="28" t="str">
+      <c r="V70" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28" t="str">
+      <c r="W70" s="29"/>
+      <c r="X70" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="39" t="e">
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="40"/>
+      <c r="AA70" s="18"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -4165,33 +4172,33 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="28" t="str">
+      <c r="V71" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28" t="str">
+      <c r="W71" s="29"/>
+      <c r="X71" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="39" t="e">
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="40"/>
+      <c r="AA71" s="18"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -4205,33 +4212,33 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="28" t="str">
+      <c r="V72" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28" t="str">
+      <c r="W72" s="29"/>
+      <c r="X72" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="39" t="e">
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="40"/>
+      <c r="AA72" s="18"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4245,33 +4252,33 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="28" t="str">
+      <c r="V73" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28" t="str">
+      <c r="W73" s="29"/>
+      <c r="X73" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="39" t="e">
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="40"/>
+      <c r="AA73" s="18"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4285,33 +4292,33 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="28" t="str">
+      <c r="V74" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28" t="str">
+      <c r="W74" s="29"/>
+      <c r="X74" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="39" t="e">
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="40"/>
+      <c r="AA74" s="18"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -4325,33 +4332,33 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="28" t="str">
+      <c r="V75" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28" t="str">
+      <c r="W75" s="29"/>
+      <c r="X75" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="39" t="e">
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="40"/>
+      <c r="AA75" s="18"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -4365,33 +4372,33 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="28" t="str">
+      <c r="V76" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28" t="str">
+      <c r="W76" s="29"/>
+      <c r="X76" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="39" t="e">
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="40"/>
+      <c r="AA76" s="18"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4405,33 +4412,33 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="28" t="str">
+      <c r="V77" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28" t="str">
+      <c r="W77" s="29"/>
+      <c r="X77" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="39" t="e">
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="40"/>
+      <c r="AA77" s="18"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4445,33 +4452,33 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="28" t="str">
+      <c r="V78" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28" t="str">
+      <c r="W78" s="29"/>
+      <c r="X78" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="39" t="e">
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="40"/>
+      <c r="AA78" s="18"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4485,33 +4492,33 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="28" t="str">
+      <c r="V79" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28" t="str">
+      <c r="W79" s="29"/>
+      <c r="X79" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="39" t="e">
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="40"/>
+      <c r="AA79" s="18"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4525,33 +4532,33 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="28" t="str">
+      <c r="V80" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28" t="str">
+      <c r="W80" s="29"/>
+      <c r="X80" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="39" t="e">
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="40"/>
+      <c r="AA80" s="18"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4565,33 +4572,33 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="28" t="str">
+      <c r="V81" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28" t="str">
+      <c r="W81" s="29"/>
+      <c r="X81" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="39" t="e">
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="40"/>
+      <c r="AA81" s="18"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4605,33 +4612,33 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="28" t="str">
+      <c r="V82" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28" t="str">
+      <c r="W82" s="29"/>
+      <c r="X82" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="39" t="e">
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="40"/>
+      <c r="AA82" s="18"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4645,33 +4652,33 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="28" t="str">
+      <c r="V83" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28" t="str">
+      <c r="W83" s="29"/>
+      <c r="X83" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="39" t="e">
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="40"/>
+      <c r="AA83" s="18"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4685,33 +4692,33 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="28" t="str">
+      <c r="V84" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28" t="str">
+      <c r="W84" s="29"/>
+      <c r="X84" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="39" t="e">
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="40"/>
+      <c r="AA84" s="18"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4725,33 +4732,33 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="28" t="str">
+      <c r="V85" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28" t="str">
+      <c r="W85" s="29"/>
+      <c r="X85" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="39" t="e">
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="40"/>
+      <c r="AA85" s="18"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4765,33 +4772,33 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="28" t="str">
+      <c r="V86" s="29" t="str">
         <f t="shared" ref="V86:V98" si="14">IF(OR(X86 = "SI",OR(R86 &gt;= 6, S86 &gt;= 6, T86 &gt;= 6, U86 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28" t="str">
+      <c r="W86" s="29"/>
+      <c r="X86" s="29" t="str">
         <f t="shared" ref="X86:X98" si="15">IF(AND(COUNTIF(L86:Q86, "&gt;0") &lt;= 1,  OR(I86&gt;=8,L86&gt;=8), OR(J86&gt;=8,N86&gt;=8,J86=0), OR(K86&gt;=8, P86&gt;=8, K86=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="39" t="e">
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="40"/>
+      <c r="AA86" s="18"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4805,33 +4812,33 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="28" t="str">
+      <c r="V87" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28" t="str">
+      <c r="W87" s="29"/>
+      <c r="X87" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="39" t="e">
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="40"/>
+      <c r="AA87" s="18"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4845,33 +4852,33 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="28" t="str">
+      <c r="V88" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28" t="str">
+      <c r="W88" s="29"/>
+      <c r="X88" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="39" t="e">
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="40"/>
+      <c r="AA88" s="18"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4885,33 +4892,33 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="28" t="str">
+      <c r="V89" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28" t="str">
+      <c r="W89" s="29"/>
+      <c r="X89" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="39" t="e">
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="40"/>
+      <c r="AA89" s="18"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4925,33 +4932,33 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="28" t="str">
+      <c r="V90" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28" t="str">
+      <c r="W90" s="29"/>
+      <c r="X90" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="39" t="e">
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="40"/>
+      <c r="AA90" s="18"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4965,33 +4972,33 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="28" t="str">
+      <c r="V91" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28" t="str">
+      <c r="W91" s="29"/>
+      <c r="X91" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="39" t="e">
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="40"/>
+      <c r="AA91" s="18"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -5005,33 +5012,33 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="28" t="str">
+      <c r="V92" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28" t="str">
+      <c r="W92" s="29"/>
+      <c r="X92" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="39" t="e">
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="40"/>
+      <c r="AA92" s="18"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5045,33 +5052,33 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="28" t="str">
+      <c r="V93" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28" t="str">
+      <c r="W93" s="29"/>
+      <c r="X93" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="39" t="e">
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="40"/>
+      <c r="AA93" s="18"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5085,33 +5092,33 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="28" t="str">
+      <c r="V94" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28" t="str">
+      <c r="W94" s="29"/>
+      <c r="X94" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="39" t="e">
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="40"/>
+      <c r="AA94" s="18"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -5125,33 +5132,33 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="28" t="str">
+      <c r="V95" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28" t="str">
+      <c r="W95" s="29"/>
+      <c r="X95" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="39" t="e">
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="40"/>
+      <c r="AA95" s="18"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -5165,33 +5172,33 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="28" t="str">
+      <c r="V96" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28" t="str">
+      <c r="W96" s="29"/>
+      <c r="X96" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="39" t="e">
+      <c r="Y96" s="29"/>
+      <c r="Z96" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="40"/>
+      <c r="AA96" s="18"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -5205,33 +5212,33 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="28" t="str">
+      <c r="V97" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28" t="str">
+      <c r="W97" s="29"/>
+      <c r="X97" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="39" t="e">
+      <c r="Y97" s="29"/>
+      <c r="Z97" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="40"/>
+      <c r="AA97" s="18"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5245,45 +5252,45 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="28" t="str">
+      <c r="V98" s="29" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28" t="str">
+      <c r="W98" s="29"/>
+      <c r="X98" s="29" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="39" t="e">
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="17" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="40"/>
+      <c r="AA98" s="18"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="32" t="s">
+      <c r="K101" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
       <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
@@ -5293,64 +5300,64 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="32" t="s">
+      <c r="K102" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
       <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="32" t="s">
+      <c r="V102" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="32"/>
-      <c r="X102" s="32"/>
-      <c r="Y102" s="32"/>
-      <c r="Z102" s="32"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
       <c r="AA102" s="14">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="32" t="s">
+      <c r="K103" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
       <c r="Q103" s="5">
         <f>Q101+Q102</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
@@ -5361,6 +5368,465 @@
     </row>
   </sheetData>
   <mergeCells count="483">
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
     <mergeCell ref="Z88:AA88"/>
     <mergeCell ref="Z87:AA87"/>
     <mergeCell ref="Z86:AA86"/>
@@ -5385,465 +5851,6 @@
     <mergeCell ref="Z79:AA79"/>
     <mergeCell ref="Z78:AA78"/>
     <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="X5:Y33 X37:Y37 X39:Y40 X42:Y43 X46:Y98">

--- a/Seguidor de Carrera.xlsx
+++ b/Seguidor de Carrera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E3E391-2837-43FD-82AA-7866DECFA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E6CDD3-5469-498A-9C6C-E701A577D9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,17 +606,56 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,10 +666,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,53 +678,17 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,79 +1054,79 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28" t="s">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="19"/>
+      <c r="X3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28" t="s">
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AA3" s="28"/>
+      <c r="AA3" s="19"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1166,26 +1169,26 @@
       <c r="U4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="3">
         <v>8</v>
       </c>
@@ -1203,35 +1206,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="41" t="str">
+      <c r="V5" s="22" t="str">
         <f>IF(OR(X5 = "SI",OR(R5 &gt;= 6, S5 &gt;= 6, T5 &gt;= 6, U5 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41" t="str">
+      <c r="W5" s="22"/>
+      <c r="X5" s="22" t="str">
         <f>IF(AND(COUNTIF(L5:Q5, "&gt;0") &lt;= 1,  OR(I5&gt;=8,L5&gt;=8), OR(J5&gt;=8,N5&gt;=8,J5=0), OR(K5&gt;=8, P5&gt;=8, K5=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="22">
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35">
         <f>IF(X5="SI",ROUNDUP(AVERAGEIF(I5:Q5,"&gt;0"),0),ROUNDUP(AVERAGEIF(R5:U5,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA5" s="23"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="3">
         <v>10</v>
       </c>
@@ -1249,35 +1252,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="41" t="str">
+      <c r="V6" s="22" t="str">
         <f t="shared" ref="V6:V12" si="0">IF(OR(X6 = "SI",OR(R6 &gt;= 6, S6 &gt;= 6, T6 &gt;= 6, U6 &gt;= 6)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41" t="str">
+      <c r="W6" s="22"/>
+      <c r="X6" s="22" t="str">
         <f t="shared" ref="X6:X12" si="1">IF(AND(COUNTIF(L6:Q6, "&gt;0") &lt;= 1,  OR(I6&gt;=8,L6&gt;=8), OR(J6&gt;=8,N6&gt;=8,J6=0), OR(K6&gt;=8, P6&gt;=8, K6=0)),"SI","NO")</f>
         <v>SI</v>
       </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="22">
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="35">
         <f t="shared" ref="Z6:Z12" si="2">IF(X6="SI",ROUNDUP(AVERAGEIF(I6:Q6,"&gt;0"),0),ROUNDUP(AVERAGEIF(R6:U6,"&gt;0"),0))</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="23"/>
+      <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="3">
         <v>9</v>
       </c>
@@ -1295,35 +1298,35 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="41" t="str">
+      <c r="V7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41" t="str">
+      <c r="W7" s="22"/>
+      <c r="X7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="22">
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="35">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AA7" s="23"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -1345,35 +1348,35 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="41" t="str">
+      <c r="V8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41" t="str">
+      <c r="W8" s="22"/>
+      <c r="X8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="22">
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AA8" s="23"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="3">
         <v>9</v>
       </c>
@@ -1391,35 +1394,35 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="41" t="str">
+      <c r="V9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41" t="str">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="22">
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="35">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA9" s="23"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1443,35 +1446,35 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="41" t="str">
+      <c r="V10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41" t="str">
+      <c r="W10" s="22"/>
+      <c r="X10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="22">
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="23"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="3">
         <v>6</v>
       </c>
@@ -1491,34 +1494,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="41" t="str">
+      <c r="V11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41" t="str">
+      <c r="W11" s="22"/>
+      <c r="X11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="22">
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="35">
         <v>9</v>
       </c>
-      <c r="AA11" s="23"/>
+      <c r="AA11" s="36"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="3">
         <v>8</v>
       </c>
@@ -1534,30 +1537,30 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="41" t="str">
+      <c r="V12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41" t="str">
+      <c r="W12" s="22"/>
+      <c r="X12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="22">
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="23"/>
+      <c r="AA12" s="36"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1574,32 +1577,32 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="30" t="str">
+      <c r="V13" s="20" t="str">
         <f t="shared" ref="V13:V21" si="3">IF(OR(X13 = "SI",OR(R13 &gt;= 6, S13 &gt;= 6, T13 &gt;= 6, U13 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="19" t="e">
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="37" t="e">
         <f t="shared" ref="Z13:Z21" si="4">IF(X13="SI",ROUNDUP(AVERAGEIF(I13:Q13,"&gt;0"),0),ROUNDUP(AVERAGEIF(R13:U13,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="38"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="3">
         <v>8</v>
       </c>
@@ -1619,35 +1622,35 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="41" t="str">
+      <c r="V14" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41" t="str">
+      <c r="W14" s="22"/>
+      <c r="X14" s="22" t="str">
         <f t="shared" ref="X14:X21" si="5">IF(AND(COUNTIF(L14:Q14, "&gt;0") &lt;= 1,  OR(I14&gt;=8,L14&gt;=8), OR(J14&gt;=8,N14&gt;=8,J14=0), OR(K14&gt;=8, P14&gt;=8, K14=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="22">
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="35">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA14" s="23"/>
+      <c r="AA14" s="36"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="9">
         <v>6</v>
       </c>
@@ -1667,35 +1670,35 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="41" t="str">
+      <c r="V15" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41" t="str">
+      <c r="W15" s="22"/>
+      <c r="X15" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="22">
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="35">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA15" s="23"/>
+      <c r="AA15" s="36"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="9">
         <v>6</v>
       </c>
@@ -1715,34 +1718,34 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="41" t="str">
+      <c r="V16" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41" t="str">
+      <c r="W16" s="22"/>
+      <c r="X16" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="22">
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="35">
         <v>10</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="36"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="3">
         <v>8</v>
       </c>
@@ -1760,35 +1763,35 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="41" t="str">
+      <c r="V17" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41" t="str">
+      <c r="W17" s="22"/>
+      <c r="X17" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="22">
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="35">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA17" s="23"/>
+      <c r="AA17" s="36"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="3">
         <v>8</v>
       </c>
@@ -1808,35 +1811,35 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="41" t="str">
+      <c r="V18" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41" t="str">
+      <c r="W18" s="22"/>
+      <c r="X18" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="22">
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="35">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA18" s="23"/>
+      <c r="AA18" s="36"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="9">
         <v>8</v>
       </c>
@@ -1854,35 +1857,35 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="41" t="str">
+      <c r="V19" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41" t="str">
+      <c r="W19" s="22"/>
+      <c r="X19" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="22">
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="35">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="23"/>
+      <c r="AA19" s="36"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="3">
         <v>8</v>
       </c>
@@ -1900,35 +1903,35 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="41" t="str">
+      <c r="V20" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41" t="str">
+      <c r="W20" s="22"/>
+      <c r="X20" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="22">
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="35">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA20" s="23"/>
+      <c r="AA20" s="36"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="3">
         <v>8</v>
       </c>
@@ -1944,30 +1947,30 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="41" t="str">
+      <c r="V21" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41" t="str">
+      <c r="W21" s="22"/>
+      <c r="X21" s="22" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="22">
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="35">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA21" s="23"/>
+      <c r="AA21" s="36"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1984,32 +1987,32 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="30" t="str">
+      <c r="V22" s="20" t="str">
         <f t="shared" ref="V22:V85" si="6">IF(OR(X22 = "SI",OR(R22 &gt;= 6, S22 &gt;= 6, T22 &gt;= 6, U22 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="19" t="e">
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="37" t="e">
         <f t="shared" ref="Z22:Z30" si="7">IF(X22="SI",ROUNDUP(AVERAGEIF(I22:Q22,"&gt;0"),0),ROUNDUP(AVERAGEIF(R22:U22,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="20"/>
+      <c r="AA22" s="38"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="12">
         <v>8</v>
       </c>
@@ -2033,35 +2036,35 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
-      <c r="V23" s="31" t="str">
+      <c r="V23" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31" t="str">
+      <c r="W23" s="29"/>
+      <c r="X23" s="29" t="str">
         <f t="shared" ref="X23:X85" si="8">IF(AND(COUNTIF(L23:Q23, "&gt;0") &lt;= 1,  OR(I23&gt;=8,L23&gt;=8), OR(J23&gt;=8,N23&gt;=8,J23=0), OR(K23&gt;=8, P23&gt;=8, K23=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="26">
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="39">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AA23" s="27"/>
+      <c r="AA23" s="40"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="15">
         <v>2</v>
       </c>
@@ -2081,33 +2084,33 @@
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="31" t="str">
+      <c r="V24" s="29" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31" t="str">
+      <c r="W24" s="29"/>
+      <c r="X24" s="29" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="26" t="e">
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="39" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="27"/>
+      <c r="AA24" s="40"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2121,35 +2124,35 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
-      <c r="V25" s="29" t="str">
+      <c r="V25" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29" t="str">
+      <c r="W25" s="30"/>
+      <c r="X25" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="17" t="e">
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="18"/>
+      <c r="AA25" s="42"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="13">
         <v>7</v>
       </c>
@@ -2171,33 +2174,33 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="41" t="str">
+      <c r="V26" s="22" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41" t="str">
+      <c r="W26" s="22"/>
+      <c r="X26" s="22" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="22">
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="35">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AA26" s="23"/>
+      <c r="AA26" s="36"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="16">
         <v>8</v>
       </c>
@@ -2215,35 +2218,35 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="41" t="str">
+      <c r="V27" s="22" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41" t="str">
+      <c r="W27" s="22"/>
+      <c r="X27" s="22" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="22">
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="35">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AA27" s="23"/>
+      <c r="AA27" s="36"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="13">
         <v>8</v>
       </c>
@@ -2259,33 +2262,33 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
-      <c r="V28" s="41" t="str">
+      <c r="V28" s="22" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41" t="str">
+      <c r="W28" s="22"/>
+      <c r="X28" s="22" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="22">
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="35">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AA28" s="23"/>
+      <c r="AA28" s="36"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -2299,35 +2302,35 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="29" t="str">
+      <c r="V29" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29" t="str">
+      <c r="W29" s="30"/>
+      <c r="X29" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="17" t="e">
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="18"/>
+      <c r="AA29" s="42"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -2341,30 +2344,30 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
-      <c r="V30" s="29" t="str">
+      <c r="V30" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29" t="str">
+      <c r="W30" s="30"/>
+      <c r="X30" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="17" t="e">
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="18"/>
+      <c r="AA30" s="42"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2381,30 +2384,30 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="30" t="str">
+      <c r="V31" s="20" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="19" t="e">
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="37" t="e">
         <f t="shared" ref="Z31:Z43" si="9">IF(X31="SI",ROUNDUP(AVERAGEIF(I31:Q31,"&gt;0"),0),ROUNDUP(AVERAGEIF(R31:U31,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="20"/>
+      <c r="AA31" s="38"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2418,35 +2421,35 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="29" t="str">
+      <c r="V32" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29" t="str">
+      <c r="W32" s="30"/>
+      <c r="X32" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="17" t="e">
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="41" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA32" s="18"/>
+      <c r="AA32" s="42"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="10" t="s">
         <v>121</v>
       </c>
@@ -2486,32 +2489,32 @@
       <c r="U33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V33" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA33" s="25"/>
+      <c r="V33" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA33" s="44"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="10" t="s">
         <v>121</v>
       </c>
@@ -2551,32 +2554,32 @@
       <c r="U34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V34" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA34" s="25"/>
+      <c r="V34" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA34" s="44"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="10" t="s">
         <v>121</v>
       </c>
@@ -2616,32 +2619,32 @@
       <c r="U35" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V35" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="25"/>
+      <c r="V35" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="44"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="10" t="s">
         <v>121</v>
       </c>
@@ -2681,30 +2684,30 @@
       <c r="U36" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA36" s="25"/>
+      <c r="V36" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" s="44"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2718,35 +2721,35 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="29" t="str">
+      <c r="V37" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29" t="str">
+      <c r="W37" s="30"/>
+      <c r="X37" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="17" t="e">
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="41" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="18"/>
+      <c r="AA37" s="42"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="10" t="s">
         <v>121</v>
       </c>
@@ -2786,30 +2789,30 @@
       <c r="U38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V38" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA38" s="25"/>
+      <c r="V38" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA38" s="44"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2823,33 +2826,33 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="29" t="str">
+      <c r="V39" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29" t="str">
+      <c r="W39" s="30"/>
+      <c r="X39" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="17" t="e">
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="41" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="18"/>
+      <c r="AA39" s="42"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2863,35 +2866,35 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="29" t="str">
+      <c r="V40" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29" t="str">
+      <c r="W40" s="30"/>
+      <c r="X40" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="17" t="e">
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="41" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="18"/>
+      <c r="AA40" s="42"/>
     </row>
     <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="10" t="s">
         <v>121</v>
       </c>
@@ -2931,30 +2934,30 @@
       <c r="U41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V41" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA41" s="25"/>
+      <c r="V41" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA41" s="44"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2968,33 +2971,33 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="29" t="str">
+      <c r="V42" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29" t="str">
+      <c r="W42" s="30"/>
+      <c r="X42" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="17" t="e">
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="41" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA42" s="18"/>
+      <c r="AA42" s="42"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3008,35 +3011,35 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="29" t="str">
+      <c r="V43" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29" t="str">
+      <c r="W43" s="30"/>
+      <c r="X43" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="17" t="e">
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="41" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA43" s="18"/>
+      <c r="AA43" s="42"/>
     </row>
     <row r="44" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="10" t="s">
         <v>121</v>
       </c>
@@ -3076,32 +3079,32 @@
       <c r="U44" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V44" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA44" s="25"/>
+      <c r="V44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA44" s="44"/>
     </row>
     <row r="45" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="10" t="s">
         <v>121</v>
       </c>
@@ -3141,27 +3144,27 @@
       <c r="U45" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V45" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA45" s="25"/>
+      <c r="V45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA45" s="44"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3178,30 +3181,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="30" t="str">
+      <c r="V46" s="20" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="19" t="e">
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="37" t="e">
         <f t="shared" ref="Z46:Z53" si="10">IF(X46="SI",ROUNDUP(AVERAGEIF(I46:Q46,"&gt;0"),0),ROUNDUP(AVERAGEIF(R46:U46,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA46" s="20"/>
+      <c r="AA46" s="38"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3215,33 +3218,33 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="29" t="str">
+      <c r="V47" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29" t="str">
+      <c r="W47" s="30"/>
+      <c r="X47" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="17" t="e">
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="18"/>
+      <c r="AA47" s="42"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3255,79 +3258,81 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="29" t="str">
+      <c r="V48" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29" t="str">
+      <c r="W48" s="30"/>
+      <c r="X48" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="17" t="e">
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="18"/>
+      <c r="AA48" s="42"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="15">
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="17">
         <v>7</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="17">
         <v>7</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="31" t="str">
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17">
+        <v>7</v>
+      </c>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31" t="str">
+        <v>SI</v>
+      </c>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="26" t="e">
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA49" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="AA49" s="36"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3341,33 +3346,33 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="29" t="str">
+      <c r="V50" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29" t="str">
+      <c r="W50" s="30"/>
+      <c r="X50" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="17" t="e">
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="18"/>
+      <c r="AA50" s="42"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3381,33 +3386,33 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="29" t="str">
+      <c r="V51" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29" t="str">
+      <c r="W51" s="30"/>
+      <c r="X51" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="17" t="e">
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA51" s="18"/>
+      <c r="AA51" s="42"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3421,33 +3426,33 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="29" t="str">
+      <c r="V52" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29" t="str">
+      <c r="W52" s="30"/>
+      <c r="X52" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="17" t="e">
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="18"/>
+      <c r="AA52" s="42"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3461,30 +3466,30 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="29" t="str">
+      <c r="V53" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29" t="str">
+      <c r="W53" s="30"/>
+      <c r="X53" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="17" t="e">
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="41" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="18"/>
+      <c r="AA53" s="42"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3501,30 +3506,30 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="30" t="str">
+      <c r="V54" s="20" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="19" t="e">
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="37" t="e">
         <f t="shared" ref="Z54:Z60" si="11">IF(X54="SI",ROUNDUP(AVERAGEIF(I54:Q54,"&gt;0"),0),ROUNDUP(AVERAGEIF(R54:U54,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="20"/>
+      <c r="AA54" s="38"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3538,33 +3543,33 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="29" t="str">
+      <c r="V55" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29" t="str">
+      <c r="W55" s="30"/>
+      <c r="X55" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="17" t="e">
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="18"/>
+      <c r="AA55" s="42"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3578,33 +3583,33 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="29" t="str">
+      <c r="V56" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29" t="str">
+      <c r="W56" s="30"/>
+      <c r="X56" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="17" t="e">
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA56" s="18"/>
+      <c r="AA56" s="42"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3618,33 +3623,33 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="29" t="str">
+      <c r="V57" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29" t="str">
+      <c r="W57" s="30"/>
+      <c r="X57" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="17" t="e">
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="18"/>
+      <c r="AA57" s="42"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3658,33 +3663,33 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="29" t="str">
+      <c r="V58" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29" t="str">
+      <c r="W58" s="30"/>
+      <c r="X58" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="17" t="e">
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="18"/>
+      <c r="AA58" s="42"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3698,33 +3703,33 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="29" t="str">
+      <c r="V59" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29" t="str">
+      <c r="W59" s="30"/>
+      <c r="X59" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="17" t="e">
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="18"/>
+      <c r="AA59" s="42"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3738,30 +3743,30 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="29" t="str">
+      <c r="V60" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29" t="str">
+      <c r="W60" s="30"/>
+      <c r="X60" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="17" t="e">
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="41" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="18"/>
+      <c r="AA60" s="42"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3778,30 +3783,30 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="30" t="str">
+      <c r="V61" s="20" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="19" t="e">
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="37" t="e">
         <f t="shared" ref="Z61:Z65" si="12">IF(X61="SI",ROUNDUP(AVERAGEIF(I61:Q61,"&gt;0"),0),ROUNDUP(AVERAGEIF(R61:U61,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA61" s="20"/>
+      <c r="AA61" s="38"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3815,33 +3820,33 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="29" t="str">
+      <c r="V62" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29" t="str">
+      <c r="W62" s="30"/>
+      <c r="X62" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="17" t="e">
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="41" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="18"/>
+      <c r="AA62" s="42"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3855,33 +3860,33 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="29" t="str">
+      <c r="V63" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29" t="str">
+      <c r="W63" s="30"/>
+      <c r="X63" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="17" t="e">
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="41" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="18"/>
+      <c r="AA63" s="42"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3895,33 +3900,33 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="29" t="str">
+      <c r="V64" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29" t="str">
+      <c r="W64" s="30"/>
+      <c r="X64" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="17" t="e">
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="41" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="18"/>
+      <c r="AA64" s="42"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3935,33 +3940,33 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="29" t="str">
+      <c r="V65" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29" t="str">
+      <c r="W65" s="30"/>
+      <c r="X65" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="17" t="e">
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="41" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="18"/>
+      <c r="AA65" s="42"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3975,30 +3980,30 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="30" t="str">
+      <c r="V66" s="20" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="19" t="e">
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="37" t="e">
         <f t="shared" ref="Z66:Z98" si="13">IF(X66="SI",ROUNDUP(AVERAGEIF(I66:Q66,"&gt;0"),0),ROUNDUP(AVERAGEIF(R66:U66,"&gt;0"),0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA66" s="20"/>
+      <c r="AA66" s="38"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -4012,33 +4017,33 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="29" t="str">
+      <c r="V67" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29" t="str">
+      <c r="W67" s="30"/>
+      <c r="X67" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="17" t="e">
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="18"/>
+      <c r="AA67" s="42"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -4052,33 +4057,33 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="29" t="str">
+      <c r="V68" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29" t="str">
+      <c r="W68" s="30"/>
+      <c r="X68" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="17" t="e">
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="18"/>
+      <c r="AA68" s="42"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -4092,33 +4097,33 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="29" t="str">
+      <c r="V69" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29" t="str">
+      <c r="W69" s="30"/>
+      <c r="X69" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="17" t="e">
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="18"/>
+      <c r="AA69" s="42"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -4132,33 +4137,33 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="29" t="str">
+      <c r="V70" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29" t="str">
+      <c r="W70" s="30"/>
+      <c r="X70" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="17" t="e">
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="18"/>
+      <c r="AA70" s="42"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -4172,33 +4177,33 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="29" t="str">
+      <c r="V71" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29" t="str">
+      <c r="W71" s="30"/>
+      <c r="X71" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="17" t="e">
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA71" s="18"/>
+      <c r="AA71" s="42"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -4212,33 +4217,33 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="29" t="str">
+      <c r="V72" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29" t="str">
+      <c r="W72" s="30"/>
+      <c r="X72" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="17" t="e">
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="18"/>
+      <c r="AA72" s="42"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -4252,33 +4257,33 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="29" t="str">
+      <c r="V73" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29" t="str">
+      <c r="W73" s="30"/>
+      <c r="X73" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="17" t="e">
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="18"/>
+      <c r="AA73" s="42"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4292,33 +4297,33 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="29" t="str">
+      <c r="V74" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29" t="str">
+      <c r="W74" s="30"/>
+      <c r="X74" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="17" t="e">
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="18"/>
+      <c r="AA74" s="42"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -4332,33 +4337,33 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="29" t="str">
+      <c r="V75" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29" t="str">
+      <c r="W75" s="30"/>
+      <c r="X75" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="17" t="e">
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="18"/>
+      <c r="AA75" s="42"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -4372,33 +4377,33 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="29" t="str">
+      <c r="V76" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29" t="str">
+      <c r="W76" s="30"/>
+      <c r="X76" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="17" t="e">
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA76" s="18"/>
+      <c r="AA76" s="42"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4412,33 +4417,33 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="29" t="str">
+      <c r="V77" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29" t="str">
+      <c r="W77" s="30"/>
+      <c r="X77" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="17" t="e">
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="18"/>
+      <c r="AA77" s="42"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -4452,33 +4457,33 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="29" t="str">
+      <c r="V78" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29" t="str">
+      <c r="W78" s="30"/>
+      <c r="X78" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="17" t="e">
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="18"/>
+      <c r="AA78" s="42"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4492,33 +4497,33 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="29" t="str">
+      <c r="V79" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29" t="str">
+      <c r="W79" s="30"/>
+      <c r="X79" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="17" t="e">
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="18"/>
+      <c r="AA79" s="42"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4532,33 +4537,33 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="29" t="str">
+      <c r="V80" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29" t="str">
+      <c r="W80" s="30"/>
+      <c r="X80" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="17" t="e">
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="18"/>
+      <c r="AA80" s="42"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4572,33 +4577,33 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="29" t="str">
+      <c r="V81" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W81" s="29"/>
-      <c r="X81" s="29" t="str">
+      <c r="W81" s="30"/>
+      <c r="X81" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="17" t="e">
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="18"/>
+      <c r="AA81" s="42"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4612,33 +4617,33 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="29" t="str">
+      <c r="V82" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29" t="str">
+      <c r="W82" s="30"/>
+      <c r="X82" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="17" t="e">
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="18"/>
+      <c r="AA82" s="42"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4652,33 +4657,33 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="29" t="str">
+      <c r="V83" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29" t="str">
+      <c r="W83" s="30"/>
+      <c r="X83" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="17" t="e">
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="18"/>
+      <c r="AA83" s="42"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4692,33 +4697,33 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="29" t="str">
+      <c r="V84" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29" t="str">
+      <c r="W84" s="30"/>
+      <c r="X84" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="17" t="e">
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="18"/>
+      <c r="AA84" s="42"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4732,33 +4737,33 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="29" t="str">
+      <c r="V85" s="30" t="str">
         <f t="shared" si="6"/>
         <v>NO</v>
       </c>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29" t="str">
+      <c r="W85" s="30"/>
+      <c r="X85" s="30" t="str">
         <f t="shared" si="8"/>
         <v>NO</v>
       </c>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="17" t="e">
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="18"/>
+      <c r="AA85" s="42"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4772,33 +4777,33 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="29" t="str">
+      <c r="V86" s="30" t="str">
         <f t="shared" ref="V86:V98" si="14">IF(OR(X86 = "SI",OR(R86 &gt;= 6, S86 &gt;= 6, T86 &gt;= 6, U86 &gt;= 6)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="W86" s="29"/>
-      <c r="X86" s="29" t="str">
+      <c r="W86" s="30"/>
+      <c r="X86" s="30" t="str">
         <f t="shared" ref="X86:X98" si="15">IF(AND(COUNTIF(L86:Q86, "&gt;0") &lt;= 1,  OR(I86&gt;=8,L86&gt;=8), OR(J86&gt;=8,N86&gt;=8,J86=0), OR(K86&gt;=8, P86&gt;=8, K86=0)),"SI","NO")</f>
         <v>NO</v>
       </c>
-      <c r="Y86" s="29"/>
-      <c r="Z86" s="17" t="e">
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA86" s="18"/>
+      <c r="AA86" s="42"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4812,33 +4817,33 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="29" t="str">
+      <c r="V87" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29" t="str">
+      <c r="W87" s="30"/>
+      <c r="X87" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="17" t="e">
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA87" s="18"/>
+      <c r="AA87" s="42"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4852,33 +4857,33 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="29" t="str">
+      <c r="V88" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29" t="str">
+      <c r="W88" s="30"/>
+      <c r="X88" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="17" t="e">
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA88" s="18"/>
+      <c r="AA88" s="42"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4892,33 +4897,33 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="29" t="str">
+      <c r="V89" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W89" s="29"/>
-      <c r="X89" s="29" t="str">
+      <c r="W89" s="30"/>
+      <c r="X89" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="17" t="e">
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA89" s="18"/>
+      <c r="AA89" s="42"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4932,33 +4937,33 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="29" t="str">
+      <c r="V90" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29" t="str">
+      <c r="W90" s="30"/>
+      <c r="X90" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="17" t="e">
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA90" s="18"/>
+      <c r="AA90" s="42"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4972,33 +4977,33 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="29" t="str">
+      <c r="V91" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29" t="str">
+      <c r="W91" s="30"/>
+      <c r="X91" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="17" t="e">
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA91" s="18"/>
+      <c r="AA91" s="42"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -5012,33 +5017,33 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="29" t="str">
+      <c r="V92" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29" t="str">
+      <c r="W92" s="30"/>
+      <c r="X92" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="17" t="e">
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="18"/>
+      <c r="AA92" s="42"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -5052,33 +5057,33 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="29" t="str">
+      <c r="V93" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29" t="str">
+      <c r="W93" s="30"/>
+      <c r="X93" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="17" t="e">
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="18"/>
+      <c r="AA93" s="42"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -5092,33 +5097,33 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="29" t="str">
+      <c r="V94" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29" t="str">
+      <c r="W94" s="30"/>
+      <c r="X94" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="17" t="e">
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="18"/>
+      <c r="AA94" s="42"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -5132,33 +5137,33 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="29" t="str">
+      <c r="V95" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29" t="str">
+      <c r="W95" s="30"/>
+      <c r="X95" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="17" t="e">
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="18"/>
+      <c r="AA95" s="42"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -5172,33 +5177,33 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="29" t="str">
+      <c r="V96" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W96" s="29"/>
-      <c r="X96" s="29" t="str">
+      <c r="W96" s="30"/>
+      <c r="X96" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="17" t="e">
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA96" s="18"/>
+      <c r="AA96" s="42"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -5212,33 +5217,33 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="29" t="str">
+      <c r="V97" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W97" s="29"/>
-      <c r="X97" s="29" t="str">
+      <c r="W97" s="30"/>
+      <c r="X97" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="17" t="e">
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA97" s="18"/>
+      <c r="AA97" s="42"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5252,45 +5257,45 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="29" t="str">
+      <c r="V98" s="30" t="str">
         <f t="shared" si="14"/>
         <v>NO</v>
       </c>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29" t="str">
+      <c r="W98" s="30"/>
+      <c r="X98" s="30" t="str">
         <f t="shared" si="15"/>
         <v>NO</v>
       </c>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="17" t="e">
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="41" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA98" s="18"/>
+      <c r="AA98" s="42"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="5">
         <f>COUNTA(A62:E65,A47:E53,A23:E30,A14:E21,A5:E11)</f>
         <v>34</v>
       </c>
-      <c r="K101" s="21" t="s">
+      <c r="K101" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
       <c r="Q101" s="5">
         <f>F101 - (COUNTIF(V5:W12,"SI") + COUNTIF(V14:W21,"SI") + COUNTIF(V23:W30,"SI") + COUNTIF(V47:W53,"SI") + COUNTIF(V62:W65,"SI"))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
@@ -5300,64 +5305,64 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="5">
         <f>COUNTA(A67:E98,A55:E60,A32:E45)</f>
         <v>52</v>
       </c>
-      <c r="K102" s="21" t="s">
+      <c r="K102" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
-      <c r="P102" s="21"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
       <c r="Q102" s="5">
         <f>F102 - (COUNTIF(V32:W45,"SI") + COUNTIF(V55:W60,"SI") + COUNTIF(V67:W98,"SI"))</f>
         <v>52</v>
       </c>
-      <c r="V102" s="21" t="s">
+      <c r="V102" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="W102" s="21"/>
-      <c r="X102" s="21"/>
-      <c r="Y102" s="21"/>
-      <c r="Z102" s="21"/>
+      <c r="W102" s="34"/>
+      <c r="X102" s="34"/>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="34"/>
       <c r="AA102" s="14">
         <f>AVERAGEIF(Z5:AA98,"&gt;0")</f>
-        <v>8</v>
+        <v>7.9523809523809526</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="5">
         <f>F101+F102</f>
         <v>86</v>
       </c>
-      <c r="K103" s="21" t="s">
+      <c r="K103" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
       <c r="Q103" s="5">
         <f>Q101+Q102</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
@@ -5368,6 +5373,465 @@
     </row>
   </sheetData>
   <mergeCells count="483">
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="V102:Z102"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z98:AA98"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="X98:Y98"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="V98:W98"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V22:W22"/>
@@ -5392,465 +5856,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="V98:W98"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="V102:Z102"/>
-    <mergeCell ref="K101:P101"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="K103:P103"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="Z98:AA98"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="Z60:AA60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="X5:Y33 X37:Y37 X39:Y40 X42:Y43 X46:Y98">
